--- a/Financials_Sample_Data.xlsx
+++ b/Financials_Sample_Data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5992675F-882E-417F-8722-2C13D870ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B584E5B9-95F8-4718-934A-FFBBF94980CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3160127-4699-4F35-B7EF-D5EB774FF9C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3160127-4699-4F35-B7EF-D5EB774FF9C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Financials Sample Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sales Trend Analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Total Sales vs Total Reveue" sheetId="4" r:id="rId2"/>
+    <sheet name="Financials Sample Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="67">
   <si>
     <t>Account</t>
   </si>
@@ -227,6 +228,15 @@
   </si>
   <si>
     <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>TOTAL REVENUE AND TOTAL EXPENSES ACROSS DIFFERENT BUSINESS UNIT</t>
+  </si>
+  <si>
+    <t>TOTAL EXPENSES ACROSS DIFFERENT BUSINESS UNIT</t>
   </si>
 </sst>
 </file>
@@ -797,7 +807,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Financials_Sample_Data.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[Financials_Sample_Data.xlsx]Sales Trend Analysis!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2830,7 +2840,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>'Sales Trend Analysis'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2853,7 +2863,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2897,7 +2907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$18</c:f>
+              <c:f>'Sales Trend Analysis'!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2952,7 +2962,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>'Sales Trend Analysis'!$C$3:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2975,7 +2985,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3019,7 +3029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$18</c:f>
+              <c:f>'Sales Trend Analysis'!$C$6:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3074,7 +3084,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:f>'Sales Trend Analysis'!$D$3:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3097,7 +3107,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3141,7 +3151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$18</c:f>
+              <c:f>'Sales Trend Analysis'!$D$6:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3196,7 +3206,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:f>'Sales Trend Analysis'!$E$3:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3219,7 +3229,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3263,7 +3273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$18</c:f>
+              <c:f>'Sales Trend Analysis'!$E$6:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3318,7 +3328,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$5</c:f>
+              <c:f>'Sales Trend Analysis'!$F$3:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3341,7 +3351,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3385,7 +3395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$18</c:f>
+              <c:f>'Sales Trend Analysis'!$F$6:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3440,7 +3450,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$5</c:f>
+              <c:f>'Sales Trend Analysis'!$G$3:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3463,7 +3473,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3507,7 +3517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$18</c:f>
+              <c:f>'Sales Trend Analysis'!$G$6:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3562,7 +3572,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$5</c:f>
+              <c:f>'Sales Trend Analysis'!$H$3:$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3587,7 +3597,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3631,7 +3641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$18</c:f>
+              <c:f>'Sales Trend Analysis'!$H$6:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3686,7 +3696,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3:$I$5</c:f>
+              <c:f>'Sales Trend Analysis'!$I$3:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3711,7 +3721,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3755,7 +3765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$18</c:f>
+              <c:f>'Sales Trend Analysis'!$I$6:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3810,7 +3820,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$5</c:f>
+              <c:f>'Sales Trend Analysis'!$J$3:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3835,7 +3845,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3879,7 +3889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$6:$J$18</c:f>
+              <c:f>'Sales Trend Analysis'!$J$6:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3934,7 +3944,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:f>'Sales Trend Analysis'!$K$3:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3959,7 +3969,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4003,7 +4013,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$6:$K$18</c:f>
+              <c:f>'Sales Trend Analysis'!$K$6:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4058,7 +4068,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$3:$L$5</c:f>
+              <c:f>'Sales Trend Analysis'!$L$3:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4083,7 +4093,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4127,7 +4137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$18</c:f>
+              <c:f>'Sales Trend Analysis'!$L$6:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4182,7 +4192,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3:$M$5</c:f>
+              <c:f>'Sales Trend Analysis'!$M$3:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4207,7 +4217,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4251,7 +4261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$18</c:f>
+              <c:f>'Sales Trend Analysis'!$M$6:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4306,7 +4316,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3:$N$5</c:f>
+              <c:f>'Sales Trend Analysis'!$N$3:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4332,7 +4342,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4376,7 +4386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$18</c:f>
+              <c:f>'Sales Trend Analysis'!$N$6:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4431,7 +4441,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$3:$O$5</c:f>
+              <c:f>'Sales Trend Analysis'!$O$3:$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4457,7 +4467,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4501,7 +4511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$18</c:f>
+              <c:f>'Sales Trend Analysis'!$O$6:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4556,7 +4566,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$3:$P$5</c:f>
+              <c:f>'Sales Trend Analysis'!$P$3:$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4582,7 +4592,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4626,7 +4636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$18</c:f>
+              <c:f>'Sales Trend Analysis'!$P$6:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4681,7 +4691,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$3:$Q$5</c:f>
+              <c:f>'Sales Trend Analysis'!$Q$3:$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4707,7 +4717,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4751,7 +4761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$18</c:f>
+              <c:f>'Sales Trend Analysis'!$Q$6:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4806,7 +4816,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$3:$R$5</c:f>
+              <c:f>'Sales Trend Analysis'!$R$3:$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4832,7 +4842,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4876,7 +4886,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$18</c:f>
+              <c:f>'Sales Trend Analysis'!$R$6:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4931,7 +4941,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$3:$S$5</c:f>
+              <c:f>'Sales Trend Analysis'!$S$3:$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4957,7 +4967,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5001,7 +5011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$S$18</c:f>
+              <c:f>'Sales Trend Analysis'!$S$6:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5056,7 +5066,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$3:$T$5</c:f>
+              <c:f>'Sales Trend Analysis'!$T$3:$T$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5081,7 +5091,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5125,7 +5135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$6:$T$18</c:f>
+              <c:f>'Sales Trend Analysis'!$T$6:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5180,7 +5190,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$3:$U$5</c:f>
+              <c:f>'Sales Trend Analysis'!$U$3:$U$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5205,7 +5215,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5249,7 +5259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$6:$U$18</c:f>
+              <c:f>'Sales Trend Analysis'!$U$6:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5304,7 +5314,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$3:$V$5</c:f>
+              <c:f>'Sales Trend Analysis'!$V$3:$V$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5329,7 +5339,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5373,7 +5383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$6:$V$18</c:f>
+              <c:f>'Sales Trend Analysis'!$V$6:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5428,7 +5438,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$3:$W$5</c:f>
+              <c:f>'Sales Trend Analysis'!$W$3:$W$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5453,7 +5463,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5497,7 +5507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$18</c:f>
+              <c:f>'Sales Trend Analysis'!$W$6:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5552,7 +5562,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$3:$X$5</c:f>
+              <c:f>'Sales Trend Analysis'!$X$3:$X$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5577,7 +5587,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5621,7 +5631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$6:$X$18</c:f>
+              <c:f>'Sales Trend Analysis'!$X$6:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5676,7 +5686,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$3:$Y$5</c:f>
+              <c:f>'Sales Trend Analysis'!$Y$3:$Y$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5701,7 +5711,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5745,7 +5755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$6:$Y$18</c:f>
+              <c:f>'Sales Trend Analysis'!$Y$6:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5800,7 +5810,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$3:$Z$5</c:f>
+              <c:f>'Sales Trend Analysis'!$Z$3:$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5826,7 +5836,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5870,7 +5880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$6:$Z$18</c:f>
+              <c:f>'Sales Trend Analysis'!$Z$6:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5925,7 +5935,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$3:$AA$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AA$3:$AA$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5951,7 +5961,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5995,7 +6005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$6:$AA$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AA$6:$AA$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6050,7 +6060,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$3:$AB$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AB$3:$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6076,7 +6086,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6120,7 +6130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$6:$AB$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AB$6:$AB$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6175,7 +6185,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$3:$AC$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AC$3:$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6201,7 +6211,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6245,7 +6255,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$6:$AC$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AC$6:$AC$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6300,7 +6310,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$3:$AD$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AD$3:$AD$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6326,7 +6336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6370,7 +6380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$6:$AD$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AD$6:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6425,7 +6435,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$3:$AE$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AE$3:$AE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6451,7 +6461,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6495,7 +6505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$6:$AE$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AE$6:$AE$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6550,7 +6560,7 @@
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$3:$AF$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AF$3:$AF$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6575,7 +6585,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6619,7 +6629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$6:$AF$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AF$6:$AF$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6674,7 +6684,7 @@
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$3:$AG$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AG$3:$AG$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6699,7 +6709,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6743,7 +6753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$6:$AG$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AG$6:$AG$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6798,7 +6808,7 @@
           <c:order val="32"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$3:$AH$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AH$3:$AH$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6823,7 +6833,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6867,7 +6877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$6:$AH$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AH$6:$AH$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6922,7 +6932,7 @@
           <c:order val="33"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$3:$AI$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AI$3:$AI$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6947,7 +6957,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6991,7 +7001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$6:$AI$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AI$6:$AI$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7046,7 +7056,7 @@
           <c:order val="34"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AJ$3:$AJ$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AJ$3:$AJ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7071,7 +7081,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7115,7 +7125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AJ$6:$AJ$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AJ$6:$AJ$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7170,7 +7180,7 @@
           <c:order val="35"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AK$3:$AK$5</c:f>
+              <c:f>'Sales Trend Analysis'!$AK$3:$AK$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7195,7 +7205,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$18</c:f>
+              <c:f>'Sales Trend Analysis'!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7239,7 +7249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AK$6:$AK$18</c:f>
+              <c:f>'Sales Trend Analysis'!$AK$6:$AK$18</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7563,7 +7573,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.113835305095304"/>
+          <c:y val="0.16257537064623678"/>
+          <c:w val="0.85968339732111443"/>
+          <c:h val="0.79188341885192282"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -7572,7 +7592,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>'Sales Trend Analysis'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7595,7 +7615,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Sales Trend Analysis'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7640,7 +7660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$35</c:f>
+              <c:f>'Sales Trend Analysis'!$B$24:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7695,7 +7715,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
+              <c:f>'Sales Trend Analysis'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7718,7 +7738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Sales Trend Analysis'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7763,7 +7783,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$35</c:f>
+              <c:f>'Sales Trend Analysis'!$C$24:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7818,7 +7838,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$23</c:f>
+              <c:f>'Sales Trend Analysis'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7841,7 +7861,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Sales Trend Analysis'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7886,7 +7906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$35</c:f>
+              <c:f>'Sales Trend Analysis'!$D$24:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8131,6 +8151,983 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23446959755030622"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.75498818897637798"/>
+          <c:h val="0.60027668416447943"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADVERTISING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$B$38:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>249390381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233063515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217348600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214317833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246801536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241211029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229416146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224847014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203814678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209139304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>237886938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>457186278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADVERTISING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$C$38:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-211109885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-191293442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-177868619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-180018891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-206986512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-193908358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-188462846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-182701691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-172713298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-171703104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-191166337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-371560342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HARDWARE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$D$38:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>343023652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317988232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304890765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313060222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337573386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348724552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314507191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312074244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271040028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>307064491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>327295432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>631142940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HARDWARE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$E$38:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-279883920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263499531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-248406419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-255634278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-274013006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-287601499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-257071702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-255662527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-219960419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-252168432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-270866555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-515526626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOFTWARE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$F$38:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>961646659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904931992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>853488073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>871661019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>974432082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>966913536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>880895253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>921818453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>776802076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>860819143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>930566005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1856905209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Sales vs Total Reveue'!$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOFTWARE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Sales vs Total Reveue'!$G$38:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-795982606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-738938982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-717115542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-709115919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-798029782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-795877260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-734204317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-743663361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-627234815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-707012779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-763568705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1524096252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9B96-4F5D-90E0-0F8B394F7B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1646886784"/>
+        <c:axId val="1646866144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1646886784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646866144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1646866144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646886784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8172,6 +9169,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9243,6 +10280,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9312,6 +10852,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D8AE64-071A-314F-27B5-F0358EAFE6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16088,7 +17669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C889AA1-03BB-432A-A976-35A84FF83005}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C889AA1-03BB-432A-A976-35A84FF83005}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:AW18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -16805,6 +18386,290 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02E47671-DF59-4955-94FE-7D478A0E096B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AW18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="48">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i r="1" i="5">
+      <x v="5"/>
+    </i>
+    <i r="1" i="6">
+      <x v="6"/>
+    </i>
+    <i r="1" i="7">
+      <x v="7"/>
+    </i>
+    <i r="1" i="8">
+      <x v="8"/>
+    </i>
+    <i r="1" i="9">
+      <x v="9"/>
+    </i>
+    <i r="1" i="10">
+      <x v="10"/>
+    </i>
+    <i r="1" i="11">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i r="1" i="5">
+      <x v="5"/>
+    </i>
+    <i r="1" i="6">
+      <x v="6"/>
+    </i>
+    <i r="1" i="7">
+      <x v="7"/>
+    </i>
+    <i r="1" i="8">
+      <x v="8"/>
+    </i>
+    <i r="1" i="9">
+      <x v="9"/>
+    </i>
+    <i r="1" i="10">
+      <x v="10"/>
+    </i>
+    <i r="1" i="11">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i r="1" i="5">
+      <x v="5"/>
+    </i>
+    <i r="1" i="6">
+      <x v="6"/>
+    </i>
+    <i r="1" i="7">
+      <x v="7"/>
+    </i>
+    <i r="1" i="8">
+      <x v="8"/>
+    </i>
+    <i r="1" i="9">
+      <x v="9"/>
+    </i>
+    <i r="1" i="10">
+      <x v="10"/>
+    </i>
+    <i r="1" i="11">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+    <i t="grand" i="3">
+      <x/>
+    </i>
+    <i t="grand" i="4">
+      <x/>
+    </i>
+    <i t="grand" i="5">
+      <x/>
+    </i>
+    <i t="grand" i="6">
+      <x/>
+    </i>
+    <i t="grand" i="7">
+      <x/>
+    </i>
+    <i t="grand" i="8">
+      <x/>
+    </i>
+    <i t="grand" i="9">
+      <x/>
+    </i>
+    <i t="grand" i="10">
+      <x/>
+    </i>
+    <i t="grand" i="11">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="12">
+    <dataField name="Sum of Jan" fld="5" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Feb" fld="6" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Mar" fld="7" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Apr" fld="8" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of May" fld="9" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jun" fld="10" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jul" fld="11" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Aug" fld="12" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Sep" fld="13" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Oct" fld="14" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Nov" fld="15" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Dec" fld="16" baseField="0" baseItem="0" numFmtId="6"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17104,8 +18969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1FD76E-DA6D-4AA8-8576-65070B046C35}">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19607,11 +21472,2807 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA80E6-E0F0-4508-841F-EA677469AC79}">
+  <dimension ref="A1:AW49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="37" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-17364595</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-20459400</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-11986287</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-13680388</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-15919049</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-18376362</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-15755728</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-25224540</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-19936529</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-23803871</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-12684010</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-15919126</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-27060894</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-24283478</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-21360526</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-16365523</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-23286609</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-29130773</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-18582852</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-29158971</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-22745738</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-27006778</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-14205244</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-26696534</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-75701413</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-71123708</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-57614970</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>-40667148</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-65189381</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-80779822</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-63575458</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-84150752</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>-64672826</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>-80651361</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>-47314545</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>-64541222</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>-120126902</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>-115866586</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>-90961783</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>-70713059</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>-104395039</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>-128286957</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>-97914038</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>-138534263</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>-107355093</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>-131462010</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>-74203799</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>-107156882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-12787553</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-12574458</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-21478879</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-15055130</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-19760192</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-10229768</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-20677192</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-18317791</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-17904200</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-19625101</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-14219470</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-8663708</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-15216528</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-15094778</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-25650610</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-22401838</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-25307927</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-17789286</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-23986707</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-28403651</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-28627364</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-21428978</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-24897918</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-14693946</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-49283962</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-42550306</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-72604597</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>-61639321</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-75105177</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-48773336</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-65306793</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-68133751</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-74147412</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>-71153245</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>-68875611</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>-41365471</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>-77288043</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>-70219542</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>-119734086</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>-99096289</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>-120173296</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>-76792390</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>-109970692</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>-114855193</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>-120678976</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>-112207324</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>-107992999</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>-64723125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-14979617</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-12293389</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-22762658</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-11923576</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-10212206</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-12032147</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-13615897</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-12692509</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-24105810</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-8722564</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-17029456</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-17498790</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-21699008</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-21182977</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-29223502</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-15561836</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-13991160</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-22398382</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-15537442</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-16684276</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-25485356</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-17185509</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-22683254</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-26773717</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-62115924</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-58003996</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-82093290</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>-45594821</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-43968177</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-62248668</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>-47494109</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>-58097903</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>-83926652</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>-42985621</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>-60270073</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>-70316308</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>-98794549</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>-91480362</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>-134079450</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>-73080233</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>-68171543</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>-96679197</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>-76647448</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>-87474688</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>-133517818</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>-68893694</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>-99982783</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>-114588815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-11825274</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-11252202</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-9941486</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-10004122</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-14777333</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-18540796</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-25260568</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-9797991</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-18526633</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-18245928</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-14902103</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-16944455</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-13669155</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-18091292</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-17249211</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-13787658</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-26525640</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-22166813</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-24609177</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-18593295</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-23628879</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-28815517</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-23767326</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-24730315</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-47474110</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-43200575</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-45191016</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>-43488700</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>-72417018</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-64734893</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>-83531315</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>-47789936</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>-59045111</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>-68325743</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>-65928150</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>-67989352</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>-72968539</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>-72544069</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>-72381713</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>-67280480</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>-113719991</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>-105442502</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>-133401060</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>-76181222</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>-101200623</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>-115387188</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>-104597579</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>-109664122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-16538716</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-15604956</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-12350535</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-14426335</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-15006328</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-22672439</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-21488228</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-22664522</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-19406551</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-19978585</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-10900612</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-15948705</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-24620740</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-24020565</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-15134478</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-15557240</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-26201549</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-22830500</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-28394780</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-29495787</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-23345542</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-24803636</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-13636626</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-25971563</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-67914951</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-68425059</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-50395709</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-49800196</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>-71124708</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-71951557</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>-80429650</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>-77575175</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-74241142</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-72366031</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>-41758752</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-72046852</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>-109074407</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>-108050580</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>-77880722</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>-79783771</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>-112332585</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>-117454496</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>-130312658</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>-129735484</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>-116993235</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>-117148252</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>-66295990</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>-113967120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-17749338</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-13646747</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-18321866</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-20234495</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-11994678</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-15249167</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-16138751</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-12286241</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-20571816</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-9791261</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-15475396</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-22448602</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-28383634</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-20681681</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-26421608</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-29295016</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-18576771</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-26684348</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-33424169</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-15131436</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-24784132</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-14772266</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-21491430</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-27955008</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-73254302</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-54950599</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-71599256</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>-71823195</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-53890367</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-73608064</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>-84677706</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>-46226078</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-78629412</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-48190631</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>-61795864</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-77231786</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>-119387274</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>-89279027</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>-116342730</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>-121352706</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>-84461816</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>-115541579</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>-134240626</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>-73643755</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>-123985360</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>-72754158</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>-98762690</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>-127635396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-14325647</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-14192491</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-21905902</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-8764166</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-13556545</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-21953705</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-11847476</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-18413385</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-12620351</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-15741060</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-18451928</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-16690190</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-18932030</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-17688513</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-22395699</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-17519897</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-23807475</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-24375092</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-18800971</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-22729924</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-20683492</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-21531630</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-28561508</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>-20045471</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>-52546171</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-47440112</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-72427809</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>-44877218</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>-66183687</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-82906419</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>-55506366</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>-67363698</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>-52297142</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>-63983062</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>-71170118</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>-57502515</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>-85803848</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>-79321116</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>-116729410</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>-71161281</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>-103547707</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>-129235216</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>-86154813</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>-108507007</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>-85600985</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>-101255752</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>-118183554</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>-94238176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-16167860</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-17995828</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-21799469</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-18170660</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-13224641</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-11911588</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-16993301</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-13462936</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-12540799</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-14884090</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-14160906</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-11389613</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-27233668</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-21232439</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-21539038</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-23211538</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-22159898</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-17034806</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-21896500</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-18254962</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-20724989</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-25981403</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-18175421</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-18217865</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-79149371</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-59802794</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-68398251</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>-64402409</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>-65693944</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>-42905191</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-64486113</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>-61567904</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-52529644</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>-70010342</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>-59189074</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>-55528324</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>-122550899</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>-99031061</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>-111736758</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>-105784607</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>-101078483</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>-71851585</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>-103375914</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>-93285802</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>-85795432</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>-110875835</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>-91525401</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>-85135802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-16901609</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-15709184</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-17411015</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-21182354</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-8732627</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-18769677</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-11577311</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-14348554</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-14492379</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-10716367</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-12128841</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-10743380</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-19954887</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-20112636</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-20073841</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-21879636</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-14897957</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-20405720</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-15532587</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-17264086</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-16888288</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-19631426</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-15322618</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-17996737</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-60078628</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-57011315</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-52824011</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>-65666994</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>-40219107</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-61190292</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>-42806478</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>-50286956</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>-44685171</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>-54092629</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>-47349371</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>-51023863</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>-96935124</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>-92833135</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>-90308867</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>-108728984</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>-63849691</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>-100365689</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>-69916376</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>-81899596</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>-76065838</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>-84440422</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>-74800830</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>-79763980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-9425581</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-11254192</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-11695268</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-19898808</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-16127387</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-11648976</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-13048051</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-20021463</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-14818516</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-11131398</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-19148795</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-13484669</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-18470735</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-16779541</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-20993703</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-30368847</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-18835792</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-17971980</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-20189191</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-25668021</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-23767855</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-12974764</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-26802857</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-19345146</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-46427218</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-53081234</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>-56403579</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>-75067151</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>-55996877</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>-50435405</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>-58083314</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>-75311962</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>-63813554</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>-42639791</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>-68847296</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>-60905398</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>-74323534</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>-81114967</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>-89092550</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>-125334806</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>-90960056</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>-80056361</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>-91320556</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>-121001446</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>-102399925</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>-66745953</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>-114798948</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>-93735213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-15444843</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-11189417</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-14771548</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-18506084</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-16511523</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-16928536</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-17657731</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-19388415</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-12001698</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-11192557</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-20608536</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-16965449</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-24912545</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-16703112</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-19898417</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-28854820</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-22866178</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-21582318</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-27065227</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-22152618</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-16546971</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-19214109</v>
+      </c>
+      <c r="X16" s="1">
+        <v>-24391953</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-26678287</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>-61124897</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-47948074</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-62158964</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>-74251018</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>-71786190</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-60321769</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>-83338771</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>-64031029</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>-44286317</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>-48841011</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>-69313393</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>-76167272</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>-101482285</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>-75840603</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>-96828929</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>-121611922</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>-111163891</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>-98832623</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>-128061729</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>-105572062</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>-72834986</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>-79247677</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>-114313882</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>-119811008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-31950465</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-30348580</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-28269221</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-30556632</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-30552103</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-28752278</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-25864434</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-35162025</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-29316318</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-28985257</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-39704989</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-32098040</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-47252508</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-54899251</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-44776120</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-36083079</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-39480102</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-34317819</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-42977665</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-46003118</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-43768291</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-36863991</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-41081252</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-48023430</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-136757335</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-137087919</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>-130059475</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>-121485322</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>-129039343</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>-111465407</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>-114520265</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>-128745279</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>-135319004</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>-114625040</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>-136138156</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>-128853707</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>-215960308</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>-222335750</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>-203104816</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>-188125033</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>-199071548</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>-174535504</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>-183362364</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>-209910422</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>-208403613</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>-180474288</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>-216924397</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>-208975177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-195461098</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-186520844</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-212694134</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-202402750</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-186374612</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-207065439</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-209924668</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-221780372</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-216241600</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-192818039</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-209415042</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-198794727</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-287406332</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-270770263</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-284716753</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-270886928</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-275937058</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-276687837</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-290997268</v>
+      </c>
+      <c r="U18" s="1">
+        <v>-289540145</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-290996897</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-270210007</v>
+      </c>
+      <c r="X18" s="1">
+        <v>-275017407</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>-297128019</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>-811828282</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-740625691</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>-821770927</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>-758763493</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>-810613976</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>-811320823</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>-843756338</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>-829280423</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>-827593387</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>-777864507</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>-797950403</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>-823472070</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>-1294695712</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>-1197916798</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>-1319181814</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>-1232053171</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>-1272925646</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>-1295074099</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>-1344678274</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>-1340600940</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>-1334831884</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>-1240892553</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>-1282382852</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>-1319394816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-211109885</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-279883920</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-795982606</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-191293442</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-263499531</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-738938982</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-177868619</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-248406419</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-717115542</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-180018891</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-255634278</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-709115919</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-206986512</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-274013006</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-798029782</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-193908358</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-287601499</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-795877260</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-188462846</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-257071702</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-734204317</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-182701691</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-255662527</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-743663361</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-172713298</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-219960419</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-627234815</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-171703104</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-252168432</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-707012779</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-191166337</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-270866555</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-763568705</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-371560342</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-515526626</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1524096252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B38" s="1">
+        <v>249390381</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-211109885</v>
+      </c>
+      <c r="D38" s="1">
+        <v>343023652</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-279883920</v>
+      </c>
+      <c r="F38" s="1">
+        <v>961646659</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-795982606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="1">
+        <v>233063515</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-191293442</v>
+      </c>
+      <c r="D39" s="1">
+        <v>317988232</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-263499531</v>
+      </c>
+      <c r="F39" s="1">
+        <v>904931992</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-738938982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="1">
+        <v>217348600</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-177868619</v>
+      </c>
+      <c r="D40" s="1">
+        <v>304890765</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-248406419</v>
+      </c>
+      <c r="F40" s="1">
+        <v>853488073</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-717115542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="1">
+        <v>214317833</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-180018891</v>
+      </c>
+      <c r="D41" s="1">
+        <v>313060222</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-255634278</v>
+      </c>
+      <c r="F41" s="1">
+        <v>871661019</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-709115919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="1">
+        <v>246801536</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-206986512</v>
+      </c>
+      <c r="D42" s="1">
+        <v>337573386</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-274013006</v>
+      </c>
+      <c r="F42" s="1">
+        <v>974432082</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-798029782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="1">
+        <v>241211029</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-193908358</v>
+      </c>
+      <c r="D43" s="1">
+        <v>348724552</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-287601499</v>
+      </c>
+      <c r="F43" s="1">
+        <v>966913536</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-795877260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="1">
+        <v>229416146</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-188462846</v>
+      </c>
+      <c r="D44" s="1">
+        <v>314507191</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-257071702</v>
+      </c>
+      <c r="F44" s="1">
+        <v>880895253</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-734204317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="1">
+        <v>224847014</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-182701691</v>
+      </c>
+      <c r="D45" s="1">
+        <v>312074244</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-255662527</v>
+      </c>
+      <c r="F45" s="1">
+        <v>921818453</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-743663361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="1">
+        <v>203814678</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-172713298</v>
+      </c>
+      <c r="D46" s="1">
+        <v>271040028</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-219960419</v>
+      </c>
+      <c r="F46" s="1">
+        <v>776802076</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-627234815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="1">
+        <v>209139304</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-171703104</v>
+      </c>
+      <c r="D47" s="1">
+        <v>307064491</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-252168432</v>
+      </c>
+      <c r="F47" s="1">
+        <v>860819143</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-707012779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="1">
+        <v>237886938</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-191166337</v>
+      </c>
+      <c r="D48" s="1">
+        <v>327295432</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-270866555</v>
+      </c>
+      <c r="F48" s="1">
+        <v>930566005</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-763568705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="1">
+        <v>457186278</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-371560342</v>
+      </c>
+      <c r="D49" s="1">
+        <v>631142940</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-515526626</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1856905209</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1524096252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B22D7A6-DD2D-4587-A102-FCB16C2CAAC7}">
   <dimension ref="A1:Q352"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Financials_Sample_Data.xlsx
+++ b/Financials_Sample_Data.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B584E5B9-95F8-4718-934A-FFBBF94980CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3139794-F7D3-4A38-B3E1-D5209AE98016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3160127-4699-4F35-B7EF-D5EB774FF9C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{B3160127-4699-4F35-B7EF-D5EB774FF9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Trend Analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="Total Sales vs Total Reveue" sheetId="4" r:id="rId2"/>
-    <sheet name="Financials Sample Data" sheetId="1" r:id="rId3"/>
+    <sheet name="TOTAL SALES VS TOTAL EXPENSES" sheetId="4" r:id="rId2"/>
+    <sheet name="Highest &amp;lowest rev." sheetId="5" r:id="rId3"/>
+    <sheet name="Compare actual vs forecast" sheetId="6" r:id="rId4"/>
+    <sheet name="Financials Sample Data" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="73">
   <si>
     <t>Account</t>
   </si>
@@ -238,6 +240,24 @@
   <si>
     <t>TOTAL EXPENSES ACROSS DIFFERENT BUSINESS UNIT</t>
   </si>
+  <si>
+    <t>EXPENSES</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>HIGHEST &amp;LOWEST REVENUE BASED ON DIFFERENT BUSINESS UNITS</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>HIGHEST &amp; LOWEST REVENUE OF ALL THE BUSINESS UNIT</t>
+  </si>
+  <si>
+    <t>ACTUAL SALES OF HARDWARE FOR 2012 &amp; 2023</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +582,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -678,6 +704,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -723,7 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -735,6 +779,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8217,7 +8266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$B$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8238,7 +8287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8283,7 +8332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$B$38:$B$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$B$38:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8337,7 +8386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$C$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8358,7 +8407,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8403,7 +8452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$C$38:$C$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$C$38:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8457,7 +8506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$D$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8478,7 +8527,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8523,7 +8572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$D$38:$D$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$D$38:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8577,7 +8626,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$E$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8598,7 +8647,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8643,7 +8692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$E$38:$E$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$E$38:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8697,7 +8746,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$F$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8718,7 +8767,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8763,7 +8812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$F$38:$F$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$F$38:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8817,7 +8866,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales vs Total Reveue'!$G$37</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8838,7 +8887,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$A$38:$A$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$A$38:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8883,7 +8932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales vs Total Reveue'!$G$38:$G$49</c:f>
+              <c:f>'TOTAL SALES VS TOTAL EXPENSES'!$G$38:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10947,7 +10996,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Scenario" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Actuals"/>
+        <s v="Budget"/>
+        <s v="Forecast"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Jan" numFmtId="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-44392971" maxValue="93925775"/>
@@ -11001,7 +11054,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="90924002"/>
     <n v="82606134"/>
     <n v="72780220"/>
@@ -11020,7 +11073,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-41623278"/>
     <n v="-40464347"/>
     <n v="-30806326"/>
@@ -11039,7 +11092,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4454359"/>
     <n v="-3386032"/>
     <n v="-3389705"/>
@@ -11058,7 +11111,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-9901680"/>
     <n v="-9871172"/>
     <n v="-8459696"/>
@@ -11077,7 +11130,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-951255"/>
     <n v="-838985"/>
     <n v="-872700"/>
@@ -11096,7 +11149,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4094116"/>
     <n v="-3599297"/>
     <n v="-3213050"/>
@@ -11115,7 +11168,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5261471"/>
     <n v="-4215309"/>
     <n v="-3781799"/>
@@ -11134,7 +11187,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-7549491"/>
     <n v="-6744180"/>
     <n v="-5424173"/>
@@ -11153,7 +11206,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1865763"/>
     <n v="-2004386"/>
     <n v="-1667521"/>
@@ -11172,7 +11225,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="20003280"/>
     <n v="24781840"/>
     <n v="15283846"/>
@@ -11191,7 +11244,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-9353324"/>
     <n v="-11513937"/>
     <n v="-6166965"/>
@@ -11210,7 +11263,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-941821"/>
     <n v="-1002323"/>
     <n v="-746736"/>
@@ -11229,7 +11282,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2496366"/>
     <n v="-2697904"/>
     <n v="-1679239"/>
@@ -11248,7 +11301,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-212638"/>
     <n v="-297458"/>
     <n v="-167930"/>
@@ -11267,7 +11320,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-977169"/>
     <n v="-1029549"/>
     <n v="-674412"/>
@@ -11286,7 +11339,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1176605"/>
     <n v="-1291439"/>
     <n v="-934063"/>
@@ -11305,7 +11358,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1729022"/>
     <n v="-2125980"/>
     <n v="-1266805"/>
@@ -11324,7 +11377,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-477650"/>
     <n v="-500810"/>
     <n v="-350137"/>
@@ -11343,7 +11396,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="32732641"/>
     <n v="30564270"/>
     <n v="26200879"/>
@@ -11362,7 +11415,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-15174996"/>
     <n v="-13026257"/>
     <n v="-11675693"/>
@@ -11381,7 +11434,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1365874"/>
     <n v="-1359525"/>
     <n v="-1296743"/>
@@ -11400,7 +11453,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3625840"/>
     <n v="-3423587"/>
     <n v="-2865530"/>
@@ -11419,7 +11472,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-404102"/>
     <n v="-338689"/>
     <n v="-289410"/>
@@ -11438,7 +11491,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1468035"/>
     <n v="-1483124"/>
     <n v="-1094520"/>
@@ -11457,7 +11510,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1854144"/>
     <n v="-1664382"/>
     <n v="-1580339"/>
@@ -11476,7 +11529,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2454740"/>
     <n v="-2246414"/>
     <n v="-1920131"/>
@@ -11495,7 +11548,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="0"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-713163"/>
     <n v="-741500"/>
     <n v="-638160"/>
@@ -11514,7 +11567,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="62935397"/>
     <n v="53925189"/>
     <n v="89800765"/>
@@ -11533,7 +11586,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-26494815"/>
     <n v="-22903069"/>
     <n v="-40456195"/>
@@ -11552,7 +11605,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2701354"/>
     <n v="-2292513"/>
     <n v="-4003886"/>
@@ -11571,7 +11624,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6903529"/>
     <n v="-6040881"/>
     <n v="-8999879"/>
@@ -11590,7 +11643,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-742125"/>
     <n v="-668336"/>
     <n v="-1090282"/>
@@ -11609,7 +11662,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3004974"/>
     <n v="-2247412"/>
     <n v="-4038201"/>
@@ -11628,7 +11681,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3635465"/>
     <n v="-3045416"/>
     <n v="-4995746"/>
@@ -11647,7 +11700,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4463301"/>
     <n v="-4126173"/>
     <n v="-7142092"/>
@@ -11666,7 +11719,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1338399"/>
     <n v="-1226506"/>
     <n v="-1878316"/>
@@ -11685,7 +11738,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="15104495"/>
     <n v="15638305"/>
     <n v="26940230"/>
@@ -11704,7 +11757,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6922154"/>
     <n v="-6719996"/>
     <n v="-11251219"/>
@@ -11723,7 +11776,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-744189"/>
     <n v="-684446"/>
     <n v="-1135391"/>
@@ -11742,7 +11795,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1820008"/>
     <n v="-1643381"/>
     <n v="-3339938"/>
@@ -11761,7 +11814,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-161575"/>
     <n v="-187636"/>
     <n v="-282811"/>
@@ -11780,7 +11833,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-741256"/>
     <n v="-734801"/>
     <n v="-1121189"/>
@@ -11799,7 +11852,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-938436"/>
     <n v="-936828"/>
     <n v="-1631024"/>
@@ -11818,7 +11871,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1135946"/>
     <n v="-1337432"/>
     <n v="-2176367"/>
@@ -11837,7 +11890,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-323989"/>
     <n v="-329938"/>
     <n v="-540940"/>
@@ -11856,7 +11909,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="19509973"/>
     <n v="17256060"/>
     <n v="30532260"/>
@@ -11875,7 +11928,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8150515"/>
     <n v="-8450170"/>
     <n v="-14161620"/>
@@ -11894,7 +11947,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-918940"/>
     <n v="-807370"/>
     <n v="-1441691"/>
@@ -11913,7 +11966,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1978540"/>
     <n v="-2042733"/>
     <n v="-3640742"/>
@@ -11932,7 +11985,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-226737"/>
     <n v="-177057"/>
     <n v="-348448"/>
@@ -11951,7 +12004,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-864114"/>
     <n v="-798924"/>
     <n v="-1397111"/>
@@ -11970,7 +12023,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-985386"/>
     <n v="-1024168"/>
     <n v="-1624588"/>
@@ -11989,7 +12042,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1643593"/>
     <n v="-1410736"/>
     <n v="-2420767"/>
@@ -12008,7 +12061,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="1"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-448703"/>
     <n v="-383620"/>
     <n v="-615643"/>
@@ -12027,7 +12080,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="73003216"/>
     <n v="67583964"/>
     <n v="96747422"/>
@@ -12046,7 +12099,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-35434154"/>
     <n v="-33276599"/>
     <n v="-46411721"/>
@@ -12065,7 +12118,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3225544"/>
     <n v="-3006614"/>
     <n v="-4716518"/>
@@ -12084,7 +12137,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8214482"/>
     <n v="-6991832"/>
     <n v="-9881604"/>
@@ -12103,7 +12156,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-812381"/>
     <n v="-823867"/>
     <n v="-1084164"/>
@@ -12122,7 +12175,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3200785"/>
     <n v="-3236733"/>
     <n v="-4576715"/>
@@ -12141,7 +12194,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4510094"/>
     <n v="-4148358"/>
     <n v="-5977214"/>
@@ -12160,7 +12213,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5157077"/>
     <n v="-4893590"/>
     <n v="-7177731"/>
@@ -12179,7 +12232,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1561407"/>
     <n v="-1626403"/>
     <n v="-2267623"/>
@@ -12198,7 +12251,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="18250804"/>
     <n v="14868472"/>
     <n v="28056752"/>
@@ -12217,7 +12270,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-7843283"/>
     <n v="-6796938"/>
     <n v="-12240526"/>
@@ -12236,7 +12289,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-883645"/>
     <n v="-676768"/>
     <n v="-1122338"/>
@@ -12255,7 +12308,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2008709"/>
     <n v="-1487720"/>
     <n v="-3285627"/>
@@ -12274,7 +12327,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-219648"/>
     <n v="-183425"/>
     <n v="-341821"/>
@@ -12293,7 +12346,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-878705"/>
     <n v="-691557"/>
     <n v="-1382445"/>
@@ -12312,7 +12365,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1101772"/>
     <n v="-896778"/>
     <n v="-1443616"/>
@@ -12331,7 +12384,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1592251"/>
     <n v="-1260716"/>
     <n v="-2347593"/>
@@ -12350,7 +12403,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-451604"/>
     <n v="-299487"/>
     <n v="-598692"/>
@@ -12369,7 +12422,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="25551126"/>
     <n v="27033586"/>
     <n v="35796546"/>
@@ -12388,7 +12441,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-12281785"/>
     <n v="-11806223"/>
     <n v="-16195590"/>
@@ -12407,7 +12460,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1071411"/>
     <n v="-1096480"/>
     <n v="-1629789"/>
@@ -12426,7 +12479,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2862315"/>
     <n v="-2916140"/>
     <n v="-3680507"/>
@@ -12445,7 +12498,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-295032"/>
     <n v="-281721"/>
     <n v="-360010"/>
@@ -12464,7 +12517,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1184703"/>
     <n v="-1206612"/>
     <n v="-1706514"/>
@@ -12483,7 +12536,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1396550"/>
     <n v="-1412122"/>
     <n v="-1960177"/>
@@ -12502,7 +12555,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2055703"/>
     <n v="-1910219"/>
     <n v="-2832136"/>
@@ -12521,7 +12574,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="2"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-551509"/>
     <n v="-553460"/>
     <n v="-858779"/>
@@ -12540,7 +12593,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="56564696"/>
     <n v="53003500"/>
     <n v="57123654"/>
@@ -12559,7 +12612,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-26025524"/>
     <n v="-24023570"/>
     <n v="-23452691"/>
@@ -12578,7 +12631,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2693681"/>
     <n v="-2344026"/>
     <n v="-2342553"/>
@@ -12597,7 +12650,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6107421"/>
     <n v="-5810585"/>
     <n v="-7021257"/>
@@ -12616,7 +12669,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-587893"/>
     <n v="-545279"/>
     <n v="-588026"/>
@@ -12635,7 +12688,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2724738"/>
     <n v="-2462961"/>
     <n v="-2377917"/>
@@ -12654,7 +12707,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3196353"/>
     <n v="-3030650"/>
     <n v="-3299636"/>
@@ -12673,7 +12726,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4765178"/>
     <n v="-3830881"/>
     <n v="-4742612"/>
@@ -12692,7 +12745,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1373322"/>
     <n v="-1152623"/>
     <n v="-1366324"/>
@@ -12711,7 +12764,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="13575527"/>
     <n v="13250875"/>
     <n v="12567204"/>
@@ -12730,7 +12783,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6729976"/>
     <n v="-6401417"/>
     <n v="-5214635"/>
@@ -12749,7 +12802,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-573757"/>
     <n v="-581423"/>
     <n v="-551830"/>
@@ -12768,7 +12821,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1568759"/>
     <n v="-1452547"/>
     <n v="-1515316"/>
@@ -12787,7 +12840,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-158356"/>
     <n v="-153332"/>
     <n v="-156029"/>
@@ -12806,7 +12859,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-628560"/>
     <n v="-607225"/>
     <n v="-605967"/>
@@ -12825,7 +12878,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-840546"/>
     <n v="-680213"/>
     <n v="-638286"/>
@@ -12844,7 +12897,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1050093"/>
     <n v="-1048268"/>
     <n v="-966784"/>
@@ -12863,7 +12916,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-275227"/>
     <n v="-327777"/>
     <n v="-292639"/>
@@ -12882,7 +12935,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="16969409"/>
     <n v="20671365"/>
     <n v="21706989"/>
@@ -12901,7 +12954,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-7450571"/>
     <n v="-10294064"/>
     <n v="-9221253"/>
@@ -12920,7 +12973,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-715290"/>
     <n v="-904129"/>
     <n v="-931252"/>
@@ -12939,7 +12992,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1988528"/>
     <n v="-2459353"/>
     <n v="-2709458"/>
@@ -12958,7 +13011,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-205282"/>
     <n v="-225837"/>
     <n v="-227747"/>
@@ -12977,7 +13030,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-723600"/>
     <n v="-1004867"/>
     <n v="-965808"/>
@@ -12996,7 +13049,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1017910"/>
     <n v="-1145770"/>
     <n v="-1136471"/>
@@ -13015,7 +13068,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1206195"/>
     <n v="-1591750"/>
     <n v="-1622068"/>
@@ -13034,7 +13087,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="3"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-361779"/>
     <n v="-465522"/>
     <n v="-435154"/>
@@ -13053,7 +13106,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="81655883"/>
     <n v="83561516"/>
     <n v="61969697"/>
@@ -13072,7 +13125,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-38152005"/>
     <n v="-36699482"/>
     <n v="-26110465"/>
@@ -13091,7 +13144,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3341830"/>
     <n v="-3367712"/>
     <n v="-3012406"/>
@@ -13110,7 +13163,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8921600"/>
     <n v="-9786168"/>
     <n v="-7486614"/>
@@ -13129,7 +13182,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-818929"/>
     <n v="-966024"/>
     <n v="-654648"/>
@@ -13148,7 +13201,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3683094"/>
     <n v="-4113810"/>
     <n v="-2921017"/>
@@ -13167,7 +13220,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4657393"/>
     <n v="-4809923"/>
     <n v="-3513189"/>
@@ -13186,7 +13239,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6635711"/>
     <n v="-6811558"/>
     <n v="-5169120"/>
@@ -13205,7 +13258,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1704389"/>
     <n v="-1870382"/>
     <n v="-1528250"/>
@@ -13224,7 +13277,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="20413971"/>
     <n v="18383534"/>
     <n v="15492424"/>
@@ -13243,7 +13296,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8524021"/>
     <n v="-8516858"/>
     <n v="-6701327"/>
@@ -13262,7 +13315,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-941449"/>
     <n v="-887985"/>
     <n v="-710304"/>
@@ -13281,7 +13334,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2536097"/>
     <n v="-2115231"/>
     <n v="-1737031"/>
@@ -13300,7 +13353,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-205336"/>
     <n v="-194814"/>
     <n v="-193218"/>
@@ -13319,7 +13372,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-851979"/>
     <n v="-905765"/>
     <n v="-710782"/>
@@ -13338,7 +13391,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1231645"/>
     <n v="-1088760"/>
     <n v="-892572"/>
@@ -13357,7 +13410,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1760584"/>
     <n v="-1456013"/>
     <n v="-1085771"/>
@@ -13376,7 +13429,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-487605"/>
     <n v="-439530"/>
     <n v="-319530"/>
@@ -13395,7 +13448,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="31845794"/>
     <n v="30082146"/>
     <n v="18590909"/>
@@ -13414,7 +13467,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-13200712"/>
     <n v="-12724470"/>
     <n v="-8005672"/>
@@ -13433,7 +13486,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1382258"/>
     <n v="-1379467"/>
     <n v="-909010"/>
@@ -13452,7 +13505,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3529710"/>
     <n v="-3352789"/>
     <n v="-2066872"/>
@@ -13471,7 +13524,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-360600"/>
     <n v="-355602"/>
     <n v="-225838"/>
@@ -13490,7 +13543,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1448404"/>
     <n v="-1354372"/>
     <n v="-843964"/>
@@ -13509,7 +13562,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1648622"/>
     <n v="-1786593"/>
     <n v="-1136110"/>
@@ -13528,7 +13581,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2309056"/>
     <n v="-2423602"/>
     <n v="-1559611"/>
@@ -13547,7 +13600,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="4"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-741378"/>
     <n v="-643670"/>
     <n v="-387401"/>
@@ -13566,7 +13619,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="90594765"/>
     <n v="64091321"/>
     <n v="90832224"/>
@@ -13585,7 +13638,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-39951806"/>
     <n v="-30670039"/>
     <n v="-38962942"/>
@@ -13604,7 +13657,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4200214"/>
     <n v="-3202859"/>
     <n v="-3773718"/>
@@ -13623,7 +13676,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-9773658"/>
     <n v="-7625235"/>
     <n v="-9175082"/>
@@ -13642,7 +13695,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1011934"/>
     <n v="-681792"/>
     <n v="-964632"/>
@@ -13661,7 +13714,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4172768"/>
     <n v="-2645823"/>
     <n v="-4323239"/>
@@ -13680,7 +13733,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5202064"/>
     <n v="-3712680"/>
     <n v="-5671365"/>
@@ -13699,7 +13752,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6815756"/>
     <n v="-4840574"/>
     <n v="-6818595"/>
@@ -13718,7 +13771,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2126102"/>
     <n v="-1571597"/>
     <n v="-1909683"/>
@@ -13737,7 +13790,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="21742744"/>
     <n v="17304657"/>
     <n v="23616378"/>
@@ -13756,7 +13809,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-9733073"/>
     <n v="-7319150"/>
     <n v="-9538845"/>
@@ -13775,7 +13828,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-997908"/>
     <n v="-722794"/>
     <n v="-1156017"/>
@@ -13794,7 +13847,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2275216"/>
     <n v="-1900402"/>
     <n v="-2684124"/>
@@ -13813,7 +13866,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-241370"/>
     <n v="-201204"/>
     <n v="-254089"/>
@@ -13832,7 +13885,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-981507"/>
     <n v="-800779"/>
     <n v="-1036791"/>
@@ -13851,7 +13904,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1260803"/>
     <n v="-887301"/>
     <n v="-1380264"/>
@@ -13870,7 +13923,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1775770"/>
     <n v="-1442574"/>
     <n v="-1726011"/>
@@ -13889,7 +13942,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-483691"/>
     <n v="-372543"/>
     <n v="-545725"/>
@@ -13908,7 +13961,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="35331958"/>
     <n v="24354702"/>
     <n v="33607923"/>
@@ -13927,7 +13980,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-14981390"/>
     <n v="-11768480"/>
     <n v="-13481513"/>
@@ -13946,7 +13999,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1587761"/>
     <n v="-1170710"/>
     <n v="-1624574"/>
@@ -13965,7 +14018,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4033118"/>
     <n v="-2804073"/>
     <n v="-4114440"/>
@@ -13984,7 +14037,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-398121"/>
     <n v="-274894"/>
     <n v="-376456"/>
@@ -14003,7 +14056,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1635112"/>
     <n v="-1019814"/>
     <n v="-1426689"/>
@@ -14022,7 +14075,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1927676"/>
     <n v="-1328400"/>
     <n v="-2069551"/>
@@ -14041,7 +14094,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3044114"/>
     <n v="-1819545"/>
     <n v="-2617322"/>
@@ -14060,7 +14113,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="5"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-776342"/>
     <n v="-495765"/>
     <n v="-711063"/>
@@ -14079,7 +14132,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="66435319"/>
     <n v="60115140"/>
     <n v="90236987"/>
@@ -14098,7 +14151,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-27104860"/>
     <n v="-25436907"/>
     <n v="-38384450"/>
@@ -14117,7 +14170,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2713289"/>
     <n v="-2643762"/>
     <n v="-4018302"/>
@@ -14136,7 +14189,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8280603"/>
     <n v="-6867597"/>
     <n v="-10628214"/>
@@ -14155,7 +14208,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-761347"/>
     <n v="-628778"/>
     <n v="-1073369"/>
@@ -14174,7 +14227,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3297070"/>
     <n v="-2664533"/>
     <n v="-3735439"/>
@@ -14193,7 +14246,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3652403"/>
     <n v="-3552663"/>
     <n v="-5623204"/>
@@ -14212,7 +14265,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5091475"/>
     <n v="-4367071"/>
     <n v="-6833347"/>
@@ -14231,7 +14284,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1645124"/>
     <n v="-1278801"/>
     <n v="-2131484"/>
@@ -14250,7 +14303,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="16608830"/>
     <n v="16832239"/>
     <n v="25266356"/>
@@ -14269,7 +14322,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8236344"/>
     <n v="-8042610"/>
     <n v="-12117107"/>
@@ -14288,7 +14341,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-766208"/>
     <n v="-784700"/>
     <n v="-1035635"/>
@@ -14307,7 +14360,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1687861"/>
     <n v="-1908906"/>
     <n v="-3099461"/>
@@ -14326,7 +14379,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-178587"/>
     <n v="-177141"/>
     <n v="-265218"/>
@@ -14345,7 +14398,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-822885"/>
     <n v="-719356"/>
     <n v="-1228124"/>
@@ -14364,7 +14417,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-878445"/>
     <n v="-1015003"/>
     <n v="-1544184"/>
@@ -14383,7 +14436,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1383309"/>
     <n v="-1184231"/>
     <n v="-2046108"/>
@@ -14402,7 +14455,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-372008"/>
     <n v="-360544"/>
     <n v="-570065"/>
@@ -14421,7 +14474,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="22588008"/>
     <n v="21641450"/>
     <n v="27071096"/>
@@ -14440,7 +14493,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-10265791"/>
     <n v="-9595925"/>
     <n v="-12320892"/>
@@ -14459,7 +14512,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1109715"/>
     <n v="-990616"/>
     <n v="-1310557"/>
@@ -14478,7 +14531,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2815912"/>
     <n v="-2488177"/>
     <n v="-2965661"/>
@@ -14497,7 +14550,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-277101"/>
     <n v="-268307"/>
     <n v="-300695"/>
@@ -14516,7 +14569,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1046413"/>
     <n v="-1064705"/>
     <n v="-1317015"/>
@@ -14535,7 +14588,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1137395"/>
     <n v="-1145692"/>
     <n v="-1437771"/>
@@ -14554,7 +14607,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1730428"/>
     <n v="-1612677"/>
     <n v="-2147516"/>
@@ -14573,7 +14626,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="6"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-549275"/>
     <n v="-522414"/>
     <n v="-595592"/>
@@ -14592,7 +14645,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="93925775"/>
     <n v="74821680"/>
     <n v="85600673"/>
@@ -14611,7 +14664,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-44392971"/>
     <n v="-32181042"/>
     <n v="-35760851"/>
@@ -14630,7 +14683,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4343758"/>
     <n v="-3359430"/>
     <n v="-3895028"/>
@@ -14649,7 +14702,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-10410570"/>
     <n v="-7492567"/>
     <n v="-9830922"/>
@@ -14668,7 +14721,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1013731"/>
     <n v="-791949"/>
     <n v="-1022834"/>
@@ -14687,7 +14740,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4644817"/>
     <n v="-3595006"/>
     <n v="-3948370"/>
@@ -14706,7 +14759,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4979698"/>
     <n v="-4435793"/>
     <n v="-4778009"/>
@@ -14725,7 +14778,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-7407369"/>
     <n v="-6226870"/>
     <n v="-7033820"/>
@@ -14744,7 +14797,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1956457"/>
     <n v="-1720137"/>
     <n v="-2128417"/>
@@ -14763,7 +14816,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="20663671"/>
     <n v="20950070"/>
     <n v="25680202"/>
@@ -14782,7 +14835,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8508915"/>
     <n v="-10304746"/>
     <n v="-12517373"/>
@@ -14801,7 +14854,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-907552"/>
     <n v="-996432"/>
     <n v="-1050172"/>
@@ -14820,7 +14873,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2448583"/>
     <n v="-2391536"/>
     <n v="-2851891"/>
@@ -14839,7 +14892,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-232296"/>
     <n v="-221176"/>
     <n v="-259024"/>
@@ -14858,7 +14911,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-896638"/>
     <n v="-945985"/>
     <n v="-1072491"/>
@@ -14877,7 +14930,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1036658"/>
     <n v="-1191081"/>
     <n v="-1453675"/>
@@ -14896,7 +14949,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1662699"/>
     <n v="-1508105"/>
     <n v="-2020361"/>
@@ -14915,7 +14968,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-474519"/>
     <n v="-436767"/>
     <n v="-574482"/>
@@ -14934,7 +14987,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="34752537"/>
     <n v="24691154"/>
     <n v="25680202"/>
@@ -14953,7 +15006,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-14132859"/>
     <n v="-11727435"/>
     <n v="-12222578"/>
@@ -14972,7 +15025,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1463871"/>
     <n v="-1024242"/>
     <n v="-1101040"/>
@@ -14991,7 +15044,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4043986"/>
     <n v="-3022354"/>
     <n v="-2798525"/>
@@ -15010,7 +15063,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-381615"/>
     <n v="-267722"/>
     <n v="-278956"/>
@@ -15029,7 +15082,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1674547"/>
     <n v="-1147043"/>
     <n v="-1157373"/>
@@ -15048,7 +15101,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2111557"/>
     <n v="-1412954"/>
     <n v="-1291124"/>
@@ -15067,7 +15120,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2621552"/>
     <n v="-2126728"/>
     <n v="-2055611"/>
@@ -15086,7 +15139,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="7"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-803681"/>
     <n v="-503961"/>
     <n v="-633831"/>
@@ -15105,7 +15158,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="71093649"/>
     <n v="69761443"/>
     <n v="67749499"/>
@@ -15124,7 +15177,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-34103526"/>
     <n v="-30206863"/>
     <n v="-27470575"/>
@@ -15143,7 +15196,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3016900"/>
     <n v="-2897074"/>
     <n v="-2761210"/>
@@ -15162,7 +15215,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8603051"/>
     <n v="-8541760"/>
     <n v="-7322344"/>
@@ -15181,7 +15234,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-796316"/>
     <n v="-740890"/>
     <n v="-771325"/>
@@ -15200,7 +15253,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3002990"/>
     <n v="-3340409"/>
     <n v="-3004524"/>
@@ -15219,7 +15272,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4083940"/>
     <n v="-4181857"/>
     <n v="-4200785"/>
@@ -15238,7 +15291,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5003748"/>
     <n v="-5633221"/>
     <n v="-5888134"/>
@@ -15257,7 +15310,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1468157"/>
     <n v="-1469241"/>
     <n v="-1405114"/>
@@ -15276,7 +15329,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="19906222"/>
     <n v="18137975"/>
     <n v="19647355"/>
@@ -15295,7 +15348,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-9592107"/>
     <n v="-9049303"/>
     <n v="-9807183"/>
@@ -15314,7 +15367,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-804051"/>
     <n v="-766774"/>
     <n v="-921681"/>
@@ -15333,7 +15386,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2107365"/>
     <n v="-2071573"/>
     <n v="-2428629"/>
@@ -15352,7 +15405,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-211617"/>
     <n v="-211295"/>
     <n v="-229589"/>
@@ -15371,7 +15424,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-882849"/>
     <n v="-828192"/>
     <n v="-913737"/>
@@ -15390,7 +15443,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1206445"/>
     <n v="-976986"/>
     <n v="-990981"/>
@@ -15409,7 +15462,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1691907"/>
     <n v="-1377291"/>
     <n v="-1682587"/>
@@ -15428,7 +15481,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-405268"/>
     <n v="-427770"/>
     <n v="-436628"/>
@@ -15447,7 +15500,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="23460904"/>
     <n v="23718891"/>
     <n v="24389820"/>
@@ -15466,7 +15519,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-11301138"/>
     <n v="-11040566"/>
     <n v="-11385210"/>
@@ -15485,7 +15538,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1040217"/>
     <n v="-1037564"/>
     <n v="-1012661"/>
@@ -15504,7 +15557,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2686116"/>
     <n v="-2811436"/>
     <n v="-2564638"/>
@@ -15523,7 +15576,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-261109"/>
     <n v="-251233"/>
     <n v="-284032"/>
@@ -15542,7 +15595,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1079788"/>
     <n v="-967463"/>
     <n v="-1074051"/>
@@ -15561,7 +15614,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1259836"/>
     <n v="-1466091"/>
     <n v="-1329954"/>
@@ -15580,7 +15633,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1761633"/>
     <n v="-2015134"/>
     <n v="-1826370"/>
@@ -15599,7 +15652,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="8"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-565050"/>
     <n v="-523149"/>
     <n v="-596925"/>
@@ -15618,7 +15671,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="59639063"/>
     <n v="63214286"/>
     <n v="68906761"/>
@@ -15637,7 +15690,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-23973231"/>
     <n v="-30015539"/>
     <n v="-31134647"/>
@@ -15656,7 +15709,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2750475"/>
     <n v="-2995013"/>
     <n v="-3278513"/>
@@ -15675,7 +15728,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6051302"/>
     <n v="-6651645"/>
     <n v="-8229415"/>
@@ -15694,7 +15747,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-717745"/>
     <n v="-784976"/>
     <n v="-740504"/>
@@ -15713,7 +15766,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2960261"/>
     <n v="-2719473"/>
     <n v="-2866789"/>
@@ -15732,7 +15785,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3649541"/>
     <n v="-3533553"/>
     <n v="-3458216"/>
@@ -15751,7 +15804,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4957360"/>
     <n v="-4832819"/>
     <n v="-4998813"/>
@@ -15770,7 +15823,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1367303"/>
     <n v="-1548216"/>
     <n v="-1696682"/>
@@ -15789,7 +15842,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="11927813"/>
     <n v="13275000"/>
     <n v="14470420"/>
@@ -15808,7 +15861,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-5053779"/>
     <n v="-6371606"/>
     <n v="-6108911"/>
@@ -15827,7 +15880,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-492817"/>
     <n v="-565371"/>
     <n v="-708801"/>
@@ -15846,7 +15899,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1386136"/>
     <n v="-1379450"/>
     <n v="-1749461"/>
@@ -15865,7 +15918,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-131523"/>
     <n v="-161711"/>
     <n v="-172700"/>
@@ -15884,7 +15937,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-538128"/>
     <n v="-661583"/>
     <n v="-625462"/>
@@ -15903,7 +15956,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-715824"/>
     <n v="-732141"/>
     <n v="-899514"/>
@@ -15922,7 +15975,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-850624"/>
     <n v="-1078967"/>
     <n v="-1072288"/>
@@ -15941,7 +15994,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-256750"/>
     <n v="-303363"/>
     <n v="-358131"/>
@@ -15960,7 +16013,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="22066453"/>
     <n v="20860714"/>
     <n v="25495502"/>
@@ -15979,7 +16032,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-10194386"/>
     <n v="-8775712"/>
     <n v="-11649875"/>
@@ -15998,7 +16051,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1020928"/>
     <n v="-962457"/>
     <n v="-1256682"/>
@@ -16017,7 +16070,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2444611"/>
     <n v="-2272245"/>
     <n v="-2641782"/>
@@ -16036,7 +16089,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-275381"/>
     <n v="-210026"/>
     <n v="-317279"/>
@@ -16055,7 +16108,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-982133"/>
     <n v="-1031282"/>
     <n v="-1031427"/>
@@ -16074,7 +16127,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1125007"/>
     <n v="-1299618"/>
     <n v="-1392648"/>
@@ -16093,7 +16146,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1892953"/>
     <n v="-1758305"/>
     <n v="-2114471"/>
@@ -16112,7 +16165,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="9"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-535336"/>
     <n v="-469896"/>
     <n v="-589539"/>
@@ -16131,7 +16184,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="78338286"/>
     <n v="58034151"/>
     <n v="75874351"/>
@@ -16150,7 +16203,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-32377742"/>
     <n v="-26379976"/>
     <n v="-33823729"/>
@@ -16169,7 +16222,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3477740"/>
     <n v="-2612821"/>
     <n v="-3043000"/>
@@ -16188,7 +16241,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8777061"/>
     <n v="-5956476"/>
     <n v="-8788853"/>
@@ -16207,7 +16260,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-851217"/>
     <n v="-648182"/>
     <n v="-827626"/>
@@ -16226,7 +16279,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3158339"/>
     <n v="-2728823"/>
     <n v="-3421161"/>
@@ -16245,7 +16298,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-4069215"/>
     <n v="-3519759"/>
     <n v="-4009533"/>
@@ -16264,7 +16317,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-6585349"/>
     <n v="-4759687"/>
     <n v="-6493370"/>
@@ -16283,7 +16336,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1828234"/>
     <n v="-1342350"/>
     <n v="-1751692"/>
@@ -16302,7 +16355,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="19584572"/>
     <n v="14508538"/>
     <n v="17451101"/>
@@ -16321,7 +16374,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-8362230"/>
     <n v="-6091621"/>
     <n v="-8316059"/>
@@ -16340,7 +16393,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-915086"/>
     <n v="-612941"/>
     <n v="-823113"/>
@@ -16359,7 +16412,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2065945"/>
     <n v="-1474640"/>
     <n v="-2117096"/>
@@ -16378,7 +16431,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-240447"/>
     <n v="-157072"/>
     <n v="-183016"/>
@@ -16397,7 +16450,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-796397"/>
     <n v="-610923"/>
     <n v="-729783"/>
@@ -16416,7 +16469,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1199233"/>
     <n v="-811310"/>
     <n v="-900254"/>
@@ -16435,7 +16488,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1445011"/>
     <n v="-1126211"/>
     <n v="-1306570"/>
@@ -16454,7 +16507,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-420494"/>
     <n v="-304699"/>
     <n v="-395657"/>
@@ -16473,7 +16526,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="30551932"/>
     <n v="19731611"/>
     <n v="24279792"/>
@@ -16492,7 +16545,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-13819091"/>
     <n v="-9286529"/>
     <n v="-10933750"/>
@@ -16511,7 +16564,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1369961"/>
     <n v="-942250"/>
     <n v="-1067439"/>
@@ -16530,7 +16583,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-3344503"/>
     <n v="-2300612"/>
     <n v="-2595976"/>
@@ -16549,7 +16602,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-338744"/>
     <n v="-244628"/>
     <n v="-271723"/>
@@ -16568,7 +16621,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1468744"/>
     <n v="-973887"/>
     <n v="-1032242"/>
@@ -16587,7 +16640,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-1633292"/>
     <n v="-1089178"/>
     <n v="-1472323"/>
@@ -16606,7 +16659,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-2276556"/>
     <n v="-1464050"/>
     <n v="-2030413"/>
@@ -16625,7 +16678,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="10"/>
-    <s v="Actuals"/>
+    <x v="0"/>
     <n v="-661654"/>
     <n v="-401978"/>
     <n v="-494551"/>
@@ -16644,7 +16697,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="89862727"/>
     <n v="99687807"/>
     <n v="99378570"/>
@@ -16663,7 +16716,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-39040130"/>
     <n v="-39921367"/>
     <n v="-45671498"/>
@@ -16682,7 +16735,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-4014208"/>
     <n v="-4730507"/>
     <n v="-4051116"/>
@@ -16701,7 +16754,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-11164524"/>
     <n v="-11563467"/>
     <n v="-10590962"/>
@@ -16720,7 +16773,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-903966"/>
     <n v="-1205019"/>
     <n v="-1010356"/>
@@ -16739,7 +16792,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-3929016"/>
     <n v="-4147710"/>
     <n v="-4445473"/>
@@ -16758,7 +16811,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-5487234"/>
     <n v="-6089746"/>
     <n v="-5750018"/>
@@ -16777,7 +16830,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-7158940"/>
     <n v="-7286160"/>
     <n v="-7691904"/>
@@ -16796,7 +16849,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1991503"/>
     <n v="-2443588"/>
     <n v="-2092138"/>
@@ -16815,7 +16868,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="23364309"/>
     <n v="21931318"/>
     <n v="19875714"/>
@@ -16834,7 +16887,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-9770870"/>
     <n v="-9977447"/>
     <n v="-9318571"/>
@@ -16853,7 +16906,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-998448"/>
     <n v="-906026"/>
     <n v="-816425"/>
@@ -16872,7 +16925,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-2858483"/>
     <n v="-2305377"/>
     <n v="-2131212"/>
@@ -16891,7 +16944,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-285338"/>
     <n v="-244889"/>
     <n v="-233148"/>
@@ -16910,7 +16963,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1031961"/>
     <n v="-1042954"/>
     <n v="-920646"/>
@@ -16929,7 +16982,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1170898"/>
     <n v="-1234525"/>
     <n v="-1172371"/>
@@ -16948,7 +17001,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1980716"/>
     <n v="-1788979"/>
     <n v="-1719915"/>
@@ -16967,7 +17020,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-566582"/>
     <n v="-505261"/>
     <n v="-426912"/>
@@ -16986,7 +17039,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="33249209"/>
     <n v="35887611"/>
     <n v="29813571"/>
@@ -17005,7 +17058,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-14119263"/>
     <n v="-17879670"/>
     <n v="-14358261"/>
@@ -17024,7 +17077,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1467109"/>
     <n v="-1677945"/>
     <n v="-1447729"/>
@@ -17043,7 +17096,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-3338737"/>
     <n v="-4402775"/>
     <n v="-3287314"/>
@@ -17062,7 +17115,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-411779"/>
     <n v="-419320"/>
     <n v="-343566"/>
@@ -17081,7 +17134,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1532046"/>
     <n v="-1660857"/>
     <n v="-1397352"/>
@@ -17100,7 +17153,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-1990196"/>
     <n v="-1966905"/>
     <n v="-1708842"/>
@@ -17119,7 +17172,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-2556106"/>
     <n v="-2734053"/>
     <n v="-2473118"/>
@@ -17138,7 +17191,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Budget"/>
+    <x v="1"/>
     <n v="-750337"/>
     <n v="-885959"/>
     <n v="-692240"/>
@@ -17157,7 +17210,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="77301768"/>
     <n v="72875628"/>
     <n v="55895001"/>
@@ -17176,7 +17229,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-35752342"/>
     <n v="-31441278"/>
     <n v="-27014782"/>
@@ -17195,7 +17248,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-3428824"/>
     <n v="-3228713"/>
     <n v="-2275853"/>
@@ -17214,7 +17267,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-7928112"/>
     <n v="-9106177"/>
     <n v="-6946518"/>
@@ -17233,7 +17286,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-957085"/>
     <n v="-849920"/>
     <n v="-682768"/>
@@ -17252,7 +17305,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-3438085"/>
     <n v="-3285329"/>
     <n v="-2789198"/>
@@ -17271,7 +17324,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-3969897"/>
     <n v="-4380494"/>
     <n v="-3366354"/>
@@ -17290,7 +17343,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-5877577"/>
     <n v="-5737846"/>
     <n v="-4331053"/>
@@ -17309,7 +17362,7 @@
     <x v="0"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1715892"/>
     <n v="-1670598"/>
     <n v="-1349484"/>
@@ -17328,7 +17381,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="17006389"/>
     <n v="16032638"/>
     <n v="14532700"/>
@@ -17347,7 +17400,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-7139124"/>
     <n v="-6558131"/>
     <n v="-5982628"/>
@@ -17366,7 +17419,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-803688"/>
     <n v="-739259"/>
     <n v="-592091"/>
@@ -17385,7 +17438,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1775134"/>
     <n v="-1641526"/>
     <n v="-1648504"/>
@@ -17404,7 +17457,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-184417"/>
     <n v="-161775"/>
     <n v="-161976"/>
@@ -17423,7 +17476,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-822293"/>
     <n v="-701739"/>
     <n v="-651658"/>
@@ -17442,7 +17495,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-874275"/>
     <n v="-940682"/>
     <n v="-892071"/>
@@ -17461,7 +17514,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1299408"/>
     <n v="-1217903"/>
     <n v="-1241944"/>
@@ -17480,7 +17533,7 @@
     <x v="1"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-388830"/>
     <n v="-382107"/>
     <n v="-359149"/>
@@ -17499,7 +17552,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="25509583"/>
     <n v="27692739"/>
     <n v="21799050"/>
@@ -17518,7 +17571,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-11578936"/>
     <n v="-13283266"/>
     <n v="-10760123"/>
@@ -17537,7 +17590,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1275330"/>
     <n v="-1342502"/>
     <n v="-1005300"/>
@@ -17556,7 +17609,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-3063156"/>
     <n v="-2978709"/>
     <n v="-2456071"/>
@@ -17575,7 +17628,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-295046"/>
     <n v="-288819"/>
     <n v="-270521"/>
@@ -17594,7 +17647,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1063042"/>
     <n v="-1383994"/>
     <n v="-1005520"/>
@@ -17613,7 +17666,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1440304"/>
     <n v="-1476449"/>
     <n v="-1202261"/>
@@ -17632,7 +17685,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-1825596"/>
     <n v="-1941785"/>
     <n v="-1833335"/>
@@ -17651,7 +17704,7 @@
     <x v="2"/>
     <s v="USD"/>
     <x v="11"/>
-    <s v="Forecast"/>
+    <x v="2"/>
     <n v="-545525"/>
     <n v="-576243"/>
     <n v="-534567"/>
@@ -17669,7 +17722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C889AA1-03BB-432A-A976-35A84FF83005}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C889AA1-03BB-432A-A976-35A84FF83005}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:AW18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -18387,7 +18440,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02E47671-DF59-4955-94FE-7D478A0E096B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02E47671-DF59-4955-94FE-7D478A0E096B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AW18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -18656,6 +18709,489 @@
     <dataField name="Sum of Sep" fld="13" baseField="0" baseItem="0" numFmtId="6"/>
     <dataField name="Sum of Oct" fld="14" baseField="0" baseItem="0" numFmtId="6"/>
     <dataField name="Sum of Nov" fld="15" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Dec" fld="16" baseField="0" baseItem="0" numFmtId="6"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F2DD675-8A05-4284-B75D-30A015071080}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A59:N72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="12">
+    <dataField name="Sum of Apr" fld="8" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Aug" fld="12" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Dec" fld="16" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Feb" fld="6" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jan" fld="5" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jul" fld="11" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jun" fld="10" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Mar" fld="7" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of May" fld="9" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Nov" fld="15" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Oct" fld="14" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Sep" fld="13" baseField="0" baseItem="0" numFmtId="6"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{018AB984-D3B3-4C41-A81C-D645AF09870C}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:N17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="12">
+    <dataField name="Sum of Jan" fld="5" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Feb" fld="6" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Mar" fld="7" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Apr" fld="8" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of May" fld="9" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jun" fld="10" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jul" fld="11" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Aug" fld="12" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Sep" fld="13" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Oct" fld="14" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Nov" fld="15" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Dec" fld="16" baseField="0" baseItem="0" numFmtId="6"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B198C113-5505-4800-8C77-4DCDE3F218D2}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B4:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="12">
+    <dataField name="Sum of Jan" fld="5" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Feb" fld="6" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Mar" fld="7" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of May" fld="9" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jun" fld="10" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Apr" fld="8" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Sep" fld="13" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Jul" fld="11" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Aug" fld="12" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Nov" fld="15" baseField="0" baseItem="0" numFmtId="6"/>
+    <dataField name="Sum of Oct" fld="14" baseField="0" baseItem="0" numFmtId="6"/>
     <dataField name="Sum of Dec" fld="16" baseField="0" baseItem="0" numFmtId="6"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -18969,8 +19505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1FD76E-DA6D-4AA8-8576-65070B046C35}">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21475,8 +22011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA80E6-E0F0-4508-841F-EA677469AC79}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21511,6 +22047,9 @@
       <c r="B1" t="s">
         <v>64</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -24268,6 +24807,3343 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB0A3A-1459-4946-8D69-6C3CFC4E9BBC}">
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="144" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="15" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="16" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5">
+        <v>2015</v>
+      </c>
+      <c r="F5">
+        <v>2016</v>
+      </c>
+      <c r="G5">
+        <v>2017</v>
+      </c>
+      <c r="H5">
+        <v>2018</v>
+      </c>
+      <c r="I5">
+        <v>2019</v>
+      </c>
+      <c r="J5">
+        <v>2020</v>
+      </c>
+      <c r="K5">
+        <v>2021</v>
+      </c>
+      <c r="L5">
+        <v>2022</v>
+      </c>
+      <c r="M5">
+        <v>2023</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>143659923</v>
+      </c>
+      <c r="C6" s="1">
+        <v>97549865</v>
+      </c>
+      <c r="D6" s="1">
+        <v>116805146</v>
+      </c>
+      <c r="E6" s="1">
+        <v>87109632</v>
+      </c>
+      <c r="F6" s="1">
+        <v>133915648</v>
+      </c>
+      <c r="G6" s="1">
+        <v>147669467</v>
+      </c>
+      <c r="H6" s="1">
+        <v>105632157</v>
+      </c>
+      <c r="I6" s="1">
+        <v>149341983</v>
+      </c>
+      <c r="J6" s="1">
+        <v>114460775</v>
+      </c>
+      <c r="K6" s="1">
+        <v>93633329</v>
+      </c>
+      <c r="L6" s="1">
+        <v>128474790</v>
+      </c>
+      <c r="M6" s="1">
+        <v>266293985</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1584546700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>137952244</v>
+      </c>
+      <c r="C7" s="1">
+        <v>86819554</v>
+      </c>
+      <c r="D7" s="1">
+        <v>109486022</v>
+      </c>
+      <c r="E7" s="1">
+        <v>86925740</v>
+      </c>
+      <c r="F7" s="1">
+        <v>132027196</v>
+      </c>
+      <c r="G7" s="1">
+        <v>105750680</v>
+      </c>
+      <c r="H7" s="1">
+        <v>98588829</v>
+      </c>
+      <c r="I7" s="1">
+        <v>120462904</v>
+      </c>
+      <c r="J7" s="1">
+        <v>111618309</v>
+      </c>
+      <c r="K7" s="1">
+        <v>97350000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>92274300</v>
+      </c>
+      <c r="M7" s="1">
+        <v>274107741</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1453363519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>114264945</v>
+      </c>
+      <c r="C8" s="1">
+        <v>147273255</v>
+      </c>
+      <c r="D8" s="1">
+        <v>160600720</v>
+      </c>
+      <c r="E8" s="1">
+        <v>91397847</v>
+      </c>
+      <c r="F8" s="1">
+        <v>96053030</v>
+      </c>
+      <c r="G8" s="1">
+        <v>148056525</v>
+      </c>
+      <c r="H8" s="1">
+        <v>142574439</v>
+      </c>
+      <c r="I8" s="1">
+        <v>136961077</v>
+      </c>
+      <c r="J8" s="1">
+        <v>111786674</v>
+      </c>
+      <c r="K8" s="1">
+        <v>108872683</v>
+      </c>
+      <c r="L8" s="1">
+        <v>117605244</v>
+      </c>
+      <c r="M8" s="1">
+        <v>241294606</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1616741045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>88415980</v>
+      </c>
+      <c r="C9" s="1">
+        <v>120750901</v>
+      </c>
+      <c r="D9" s="1">
+        <v>86984313</v>
+      </c>
+      <c r="E9" s="1">
+        <v>79852720</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99868942</v>
+      </c>
+      <c r="G9" s="1">
+        <v>153058060</v>
+      </c>
+      <c r="H9" s="1">
+        <v>86341857</v>
+      </c>
+      <c r="I9" s="1">
+        <v>126466626</v>
+      </c>
+      <c r="J9" s="1">
+        <v>135528246</v>
+      </c>
+      <c r="K9" s="1">
+        <v>150017034</v>
+      </c>
+      <c r="L9" s="1">
+        <v>145624192</v>
+      </c>
+      <c r="M9" s="1">
+        <v>224426256</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1497335127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>126370817</v>
+      </c>
+      <c r="C10" s="1">
+        <v>142237899</v>
+      </c>
+      <c r="D10" s="1">
+        <v>83673286</v>
+      </c>
+      <c r="E10" s="1">
+        <v>137122180</v>
+      </c>
+      <c r="F10" s="1">
+        <v>135356076</v>
+      </c>
+      <c r="G10" s="1">
+        <v>98864545</v>
+      </c>
+      <c r="H10" s="1">
+        <v>124342029</v>
+      </c>
+      <c r="I10" s="1">
+        <v>124587555</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80622990</v>
+      </c>
+      <c r="K10" s="1">
+        <v>110355725</v>
+      </c>
+      <c r="L10" s="1">
+        <v>132410766</v>
+      </c>
+      <c r="M10" s="1">
+        <v>239533222</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1535477090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>155179084</v>
+      </c>
+      <c r="C11" s="1">
+        <v>88754700</v>
+      </c>
+      <c r="D11" s="1">
+        <v>115915086</v>
+      </c>
+      <c r="E11" s="1">
+        <v>132439691</v>
+      </c>
+      <c r="F11" s="1">
+        <v>145744223</v>
+      </c>
+      <c r="G11" s="1">
+        <v>142523124</v>
+      </c>
+      <c r="H11" s="1">
+        <v>154381125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>91696123</v>
+      </c>
+      <c r="J11" s="1">
+        <v>120995529</v>
+      </c>
+      <c r="K11" s="1">
+        <v>97091532</v>
+      </c>
+      <c r="L11" s="1">
+        <v>119863843</v>
+      </c>
+      <c r="M11" s="1">
+        <v>210246441</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1574830501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1">
+        <v>119884845</v>
+      </c>
+      <c r="C12" s="1">
+        <v>134363319</v>
+      </c>
+      <c r="D12" s="1">
+        <v>96406675</v>
+      </c>
+      <c r="E12" s="1">
+        <v>160251334</v>
+      </c>
+      <c r="F12" s="1">
+        <v>158540214</v>
+      </c>
+      <c r="G12" s="1">
+        <v>155224971</v>
+      </c>
+      <c r="H12" s="1">
+        <v>102265755</v>
+      </c>
+      <c r="I12" s="1">
+        <v>128292974</v>
+      </c>
+      <c r="J12" s="1">
+        <v>85602599</v>
+      </c>
+      <c r="K12" s="1">
+        <v>111298224</v>
+      </c>
+      <c r="L12" s="1">
+        <v>148781649</v>
+      </c>
+      <c r="M12" s="1">
+        <v>228478793</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1629391352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1">
+        <v>162179941</v>
+      </c>
+      <c r="C13" s="1">
+        <v>140924603</v>
+      </c>
+      <c r="D13" s="1">
+        <v>103877985</v>
+      </c>
+      <c r="E13" s="1">
+        <v>91048654</v>
+      </c>
+      <c r="F13" s="1">
+        <v>159496374</v>
+      </c>
+      <c r="G13" s="1">
+        <v>90262256</v>
+      </c>
+      <c r="H13" s="1">
+        <v>132754516</v>
+      </c>
+      <c r="I13" s="1">
+        <v>114186632</v>
+      </c>
+      <c r="J13" s="1">
+        <v>96004620</v>
+      </c>
+      <c r="K13" s="1">
+        <v>146382533</v>
+      </c>
+      <c r="L13" s="1">
+        <v>135459937</v>
+      </c>
+      <c r="M13" s="1">
+        <v>259412225</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1631990276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1">
+        <v>132599351</v>
+      </c>
+      <c r="C14" s="1">
+        <v>146245176</v>
+      </c>
+      <c r="D14" s="1">
+        <v>161012857</v>
+      </c>
+      <c r="E14" s="1">
+        <v>127000189</v>
+      </c>
+      <c r="F14" s="1">
+        <v>138794678</v>
+      </c>
+      <c r="G14" s="1">
+        <v>148320837</v>
+      </c>
+      <c r="H14" s="1">
+        <v>102844809</v>
+      </c>
+      <c r="I14" s="1">
+        <v>107429220</v>
+      </c>
+      <c r="J14" s="1">
+        <v>94591620</v>
+      </c>
+      <c r="K14" s="1">
+        <v>126521285</v>
+      </c>
+      <c r="L14" s="1">
+        <v>89372525</v>
+      </c>
+      <c r="M14" s="1">
+        <v>256023084</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1630755631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>154504913</v>
+      </c>
+      <c r="C15" s="1">
+        <v>136361479</v>
+      </c>
+      <c r="D15" s="1">
+        <v>84299344</v>
+      </c>
+      <c r="E15" s="1">
+        <v>142495274</v>
+      </c>
+      <c r="F15" s="1">
+        <v>142321997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87414861</v>
+      </c>
+      <c r="H15" s="1">
+        <v>119878024</v>
+      </c>
+      <c r="I15" s="1">
+        <v>135270983</v>
+      </c>
+      <c r="J15" s="1">
+        <v>106018792</v>
+      </c>
+      <c r="K15" s="1">
+        <v>83685855</v>
+      </c>
+      <c r="L15" s="1">
+        <v>99676090</v>
+      </c>
+      <c r="M15" s="1">
+        <v>225983727</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1517911339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1">
+        <v>86722894</v>
+      </c>
+      <c r="C16" s="1">
+        <v>132638853</v>
+      </c>
+      <c r="D16" s="1">
+        <v>119713868</v>
+      </c>
+      <c r="E16" s="1">
+        <v>123867664</v>
+      </c>
+      <c r="F16" s="1">
+        <v>81167784</v>
+      </c>
+      <c r="G16" s="1">
+        <v>120131486</v>
+      </c>
+      <c r="H16" s="1">
+        <v>138891460</v>
+      </c>
+      <c r="I16" s="1">
+        <v>116992626</v>
+      </c>
+      <c r="J16" s="1">
+        <v>92876102</v>
+      </c>
+      <c r="K16" s="1">
+        <v>141068901</v>
+      </c>
+      <c r="L16" s="1">
+        <v>147564911</v>
+      </c>
+      <c r="M16" s="1">
+        <v>259787231</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1561423780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1">
+        <v>132325755</v>
+      </c>
+      <c r="C17" s="1">
+        <v>82064135</v>
+      </c>
+      <c r="D17" s="1">
+        <v>136952136</v>
+      </c>
+      <c r="E17" s="1">
+        <v>139528149</v>
+      </c>
+      <c r="F17" s="1">
+        <v>135520842</v>
+      </c>
+      <c r="G17" s="1">
+        <v>159572305</v>
+      </c>
+      <c r="H17" s="1">
+        <v>116323590</v>
+      </c>
+      <c r="I17" s="1">
+        <v>107051008</v>
+      </c>
+      <c r="J17" s="1">
+        <v>101550526</v>
+      </c>
+      <c r="K17" s="1">
+        <v>110745837</v>
+      </c>
+      <c r="L17" s="1">
+        <v>138640128</v>
+      </c>
+      <c r="M17" s="1">
+        <v>259647116</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1619921527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2021</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2023</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15883110</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18295591</v>
+      </c>
+      <c r="D24" s="1">
+        <v>14223850</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11849113</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16538806</v>
+      </c>
+      <c r="G24" s="1">
+        <v>26264401</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10998963</v>
+      </c>
+      <c r="I24" s="1">
+        <v>22993932</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25097823</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24254251</v>
+      </c>
+      <c r="L24" s="1">
+        <v>22808608</v>
+      </c>
+      <c r="M24" s="1">
+        <v>35481437</v>
+      </c>
+      <c r="N24" s="1">
+        <v>244689885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1">
+        <v>29487262</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23487434</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16188777</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11875911</v>
+      </c>
+      <c r="F25" s="1">
+        <v>26582729</v>
+      </c>
+      <c r="G25" s="1">
+        <v>15043709</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23991780</v>
+      </c>
+      <c r="I25" s="1">
+        <v>15775785</v>
+      </c>
+      <c r="J25" s="1">
+        <v>16491591</v>
+      </c>
+      <c r="K25" s="1">
+        <v>25572852</v>
+      </c>
+      <c r="L25" s="1">
+        <v>24931277</v>
+      </c>
+      <c r="M25" s="1">
+        <v>44549948</v>
+      </c>
+      <c r="N25" s="1">
+        <v>273979055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18194791</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10657680</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20041776</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20183317</v>
+      </c>
+      <c r="F26" s="1">
+        <v>18634116</v>
+      </c>
+      <c r="G26" s="1">
+        <v>27925153</v>
+      </c>
+      <c r="H26" s="1">
+        <v>19739761</v>
+      </c>
+      <c r="I26" s="1">
+        <v>14693276</v>
+      </c>
+      <c r="J26" s="1">
+        <v>13019298</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15718764</v>
+      </c>
+      <c r="L26" s="1">
+        <v>20181791</v>
+      </c>
+      <c r="M26" s="1">
+        <v>39929932</v>
+      </c>
+      <c r="N26" s="1">
+        <v>238919655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24781840</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15638305</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14868472</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13250875</v>
+      </c>
+      <c r="F27" s="1">
+        <v>18383534</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17304657</v>
+      </c>
+      <c r="H27" s="1">
+        <v>16832239</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20950070</v>
+      </c>
+      <c r="J27" s="1">
+        <v>18137975</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13275000</v>
+      </c>
+      <c r="L27" s="1">
+        <v>14508538</v>
+      </c>
+      <c r="M27" s="1">
+        <v>37963956</v>
+      </c>
+      <c r="N27" s="1">
+        <v>225895461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20003280</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15104495</v>
+      </c>
+      <c r="D28" s="1">
+        <v>18250804</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13575527</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20413971</v>
+      </c>
+      <c r="G28" s="1">
+        <v>21742744</v>
+      </c>
+      <c r="H28" s="1">
+        <v>16608830</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20663671</v>
+      </c>
+      <c r="J28" s="1">
+        <v>19906222</v>
+      </c>
+      <c r="K28" s="1">
+        <v>11927813</v>
+      </c>
+      <c r="L28" s="1">
+        <v>19584572</v>
+      </c>
+      <c r="M28" s="1">
+        <v>40370698</v>
+      </c>
+      <c r="N28" s="1">
+        <v>238152627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18562815</v>
+      </c>
+      <c r="C29" s="1">
+        <v>23759367</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16977276</v>
+      </c>
+      <c r="E29" s="1">
+        <v>29860497</v>
+      </c>
+      <c r="F29" s="1">
+        <v>26101133</v>
+      </c>
+      <c r="G29" s="1">
+        <v>19403121</v>
+      </c>
+      <c r="H29" s="1">
+        <v>14149979</v>
+      </c>
+      <c r="I29" s="1">
+        <v>22311822</v>
+      </c>
+      <c r="J29" s="1">
+        <v>14526502</v>
+      </c>
+      <c r="K29" s="1">
+        <v>15276227</v>
+      </c>
+      <c r="L29" s="1">
+        <v>21935756</v>
+      </c>
+      <c r="M29" s="1">
+        <v>31905016</v>
+      </c>
+      <c r="N29" s="1">
+        <v>254769511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>22168441</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11871648</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14766253</v>
+      </c>
+      <c r="E30" s="1">
+        <v>22632099</v>
+      </c>
+      <c r="F30" s="1">
+        <v>26252065</v>
+      </c>
+      <c r="G30" s="1">
+        <v>19720181</v>
+      </c>
+      <c r="H30" s="1">
+        <v>25404489</v>
+      </c>
+      <c r="I30" s="1">
+        <v>14537190</v>
+      </c>
+      <c r="J30" s="1">
+        <v>21526812</v>
+      </c>
+      <c r="K30" s="1">
+        <v>14383931</v>
+      </c>
+      <c r="L30" s="1">
+        <v>19977307</v>
+      </c>
+      <c r="M30" s="1">
+        <v>35768400</v>
+      </c>
+      <c r="N30" s="1">
+        <v>249008816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15283846</v>
+      </c>
+      <c r="C31" s="1">
+        <v>26940230</v>
+      </c>
+      <c r="D31" s="1">
+        <v>28056752</v>
+      </c>
+      <c r="E31" s="1">
+        <v>12567204</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15492424</v>
+      </c>
+      <c r="G31" s="1">
+        <v>23616378</v>
+      </c>
+      <c r="H31" s="1">
+        <v>25266356</v>
+      </c>
+      <c r="I31" s="1">
+        <v>25680202</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19647355</v>
+      </c>
+      <c r="K31" s="1">
+        <v>14470420</v>
+      </c>
+      <c r="L31" s="1">
+        <v>17451101</v>
+      </c>
+      <c r="M31" s="1">
+        <v>34408414</v>
+      </c>
+      <c r="N31" s="1">
+        <v>258880682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19382027</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24002645</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13323772</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17248073</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17242812</v>
+      </c>
+      <c r="G32" s="1">
+        <v>14211778</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16990836</v>
+      </c>
+      <c r="I32" s="1">
+        <v>16771402</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10648319</v>
+      </c>
+      <c r="K32" s="1">
+        <v>18622529</v>
+      </c>
+      <c r="L32" s="1">
+        <v>21219674</v>
+      </c>
+      <c r="M32" s="1">
+        <v>36505510</v>
+      </c>
+      <c r="N32" s="1">
+        <v>226169377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14819735</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17004981</v>
+      </c>
+      <c r="D33" s="1">
+        <v>19952311</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18998108</v>
+      </c>
+      <c r="F33" s="1">
+        <v>12843004</v>
+      </c>
+      <c r="G33" s="1">
+        <v>19280362</v>
+      </c>
+      <c r="H33" s="1">
+        <v>23148577</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16933143</v>
+      </c>
+      <c r="J33" s="1">
+        <v>14695586</v>
+      </c>
+      <c r="K33" s="1">
+        <v>22501788</v>
+      </c>
+      <c r="L33" s="1">
+        <v>26415941</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47104833</v>
+      </c>
+      <c r="N33" s="1">
+        <v>253698369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>27658287</v>
+      </c>
+      <c r="C34" s="1">
+        <v>25408971</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11064289</v>
+      </c>
+      <c r="E34" s="1">
+        <v>21110411</v>
+      </c>
+      <c r="F34" s="1">
+        <v>24598864</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11352579</v>
+      </c>
+      <c r="H34" s="1">
+        <v>19979671</v>
+      </c>
+      <c r="I34" s="1">
+        <v>18093571</v>
+      </c>
+      <c r="J34" s="1">
+        <v>13592153</v>
+      </c>
+      <c r="K34" s="1">
+        <v>14391835</v>
+      </c>
+      <c r="L34" s="1">
+        <v>13536259</v>
+      </c>
+      <c r="M34" s="1">
+        <v>35676834</v>
+      </c>
+      <c r="N34" s="1">
+        <v>236463724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>23164947</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20892168</v>
+      </c>
+      <c r="D35" s="1">
+        <v>29634268</v>
+      </c>
+      <c r="E35" s="1">
+        <v>21166698</v>
+      </c>
+      <c r="F35" s="1">
+        <v>23718078</v>
+      </c>
+      <c r="G35" s="1">
+        <v>25345966</v>
+      </c>
+      <c r="H35" s="1">
+        <v>16304665</v>
+      </c>
+      <c r="I35" s="1">
+        <v>15442950</v>
+      </c>
+      <c r="J35" s="1">
+        <v>16525042</v>
+      </c>
+      <c r="K35" s="1">
+        <v>18743894</v>
+      </c>
+      <c r="L35" s="1">
+        <v>15336114</v>
+      </c>
+      <c r="M35" s="1">
+        <v>37521300</v>
+      </c>
+      <c r="N35" s="1">
+        <v>263796090</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2021</v>
+      </c>
+      <c r="L39" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2023</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19589169</v>
+      </c>
+      <c r="C40" s="1">
+        <v>29272946</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18053348</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16485723</v>
+      </c>
+      <c r="F40" s="1">
+        <v>19719345</v>
+      </c>
+      <c r="G40" s="1">
+        <v>36226760</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20348081</v>
+      </c>
+      <c r="I40" s="1">
+        <v>26826254</v>
+      </c>
+      <c r="J40" s="1">
+        <v>26771012</v>
+      </c>
+      <c r="K40" s="1">
+        <v>35932224</v>
+      </c>
+      <c r="L40" s="1">
+        <v>35090167</v>
+      </c>
+      <c r="M40" s="1">
+        <v>44290210</v>
+      </c>
+      <c r="N40" s="1">
+        <v>328605239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1">
+        <v>34401806</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33553477</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20235971</v>
+      </c>
+      <c r="E41" s="1">
+        <v>22620784</v>
+      </c>
+      <c r="F41" s="1">
+        <v>34459093</v>
+      </c>
+      <c r="G41" s="1">
+        <v>17358126</v>
+      </c>
+      <c r="H41" s="1">
+        <v>28790136</v>
+      </c>
+      <c r="I41" s="1">
+        <v>23288063</v>
+      </c>
+      <c r="J41" s="1">
+        <v>20614489</v>
+      </c>
+      <c r="K41" s="1">
+        <v>32627432</v>
+      </c>
+      <c r="L41" s="1">
+        <v>27424404</v>
+      </c>
+      <c r="M41" s="1">
+        <v>56684091</v>
+      </c>
+      <c r="N41" s="1">
+        <v>352057872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1">
+        <v>31427367</v>
+      </c>
+      <c r="C42" s="1">
+        <v>18118056</v>
+      </c>
+      <c r="D42" s="1">
+        <v>33402960</v>
+      </c>
+      <c r="E42" s="1">
+        <v>31591279</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32186200</v>
+      </c>
+      <c r="G42" s="1">
+        <v>31914461</v>
+      </c>
+      <c r="H42" s="1">
+        <v>26084684</v>
+      </c>
+      <c r="I42" s="1">
+        <v>22389753</v>
+      </c>
+      <c r="J42" s="1">
+        <v>23434737</v>
+      </c>
+      <c r="K42" s="1">
+        <v>23578146</v>
+      </c>
+      <c r="L42" s="1">
+        <v>30711421</v>
+      </c>
+      <c r="M42" s="1">
+        <v>61245589</v>
+      </c>
+      <c r="N42" s="1">
+        <v>366084653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>30564270</v>
+      </c>
+      <c r="C43" s="1">
+        <v>17256060</v>
+      </c>
+      <c r="D43" s="1">
+        <v>27033586</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20671365</v>
+      </c>
+      <c r="F43" s="1">
+        <v>30082146</v>
+      </c>
+      <c r="G43" s="1">
+        <v>24354702</v>
+      </c>
+      <c r="H43" s="1">
+        <v>21641450</v>
+      </c>
+      <c r="I43" s="1">
+        <v>24691154</v>
+      </c>
+      <c r="J43" s="1">
+        <v>23718891</v>
+      </c>
+      <c r="K43" s="1">
+        <v>20860714</v>
+      </c>
+      <c r="L43" s="1">
+        <v>19731611</v>
+      </c>
+      <c r="M43" s="1">
+        <v>63580350</v>
+      </c>
+      <c r="N43" s="1">
+        <v>324186299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1">
+        <v>32732641</v>
+      </c>
+      <c r="C44" s="1">
+        <v>19509973</v>
+      </c>
+      <c r="D44" s="1">
+        <v>25551126</v>
+      </c>
+      <c r="E44" s="1">
+        <v>16969409</v>
+      </c>
+      <c r="F44" s="1">
+        <v>31845794</v>
+      </c>
+      <c r="G44" s="1">
+        <v>35331958</v>
+      </c>
+      <c r="H44" s="1">
+        <v>22588008</v>
+      </c>
+      <c r="I44" s="1">
+        <v>34752537</v>
+      </c>
+      <c r="J44" s="1">
+        <v>23460904</v>
+      </c>
+      <c r="K44" s="1">
+        <v>22066453</v>
+      </c>
+      <c r="L44" s="1">
+        <v>30551932</v>
+      </c>
+      <c r="M44" s="1">
+        <v>58758792</v>
+      </c>
+      <c r="N44" s="1">
+        <v>354119527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1">
+        <v>23976969</v>
+      </c>
+      <c r="C45" s="1">
+        <v>28675099</v>
+      </c>
+      <c r="D45" s="1">
+        <v>18796270</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30855847</v>
+      </c>
+      <c r="F45" s="1">
+        <v>35768219</v>
+      </c>
+      <c r="G45" s="1">
+        <v>38806243</v>
+      </c>
+      <c r="H45" s="1">
+        <v>23797691</v>
+      </c>
+      <c r="I45" s="1">
+        <v>26296075</v>
+      </c>
+      <c r="J45" s="1">
+        <v>19195734</v>
+      </c>
+      <c r="K45" s="1">
+        <v>23278060</v>
+      </c>
+      <c r="L45" s="1">
+        <v>31473041</v>
+      </c>
+      <c r="M45" s="1">
+        <v>50911463</v>
+      </c>
+      <c r="N45" s="1">
+        <v>351830711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1">
+        <v>36626119</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20351396</v>
+      </c>
+      <c r="D46" s="1">
+        <v>27317568</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25985003</v>
+      </c>
+      <c r="F46" s="1">
+        <v>28967796</v>
+      </c>
+      <c r="G46" s="1">
+        <v>33165758</v>
+      </c>
+      <c r="H46" s="1">
+        <v>31267063</v>
+      </c>
+      <c r="I46" s="1">
+        <v>21246663</v>
+      </c>
+      <c r="J46" s="1">
+        <v>25238331</v>
+      </c>
+      <c r="K46" s="1">
+        <v>22774557</v>
+      </c>
+      <c r="L46" s="1">
+        <v>25896509</v>
+      </c>
+      <c r="M46" s="1">
+        <v>42865404</v>
+      </c>
+      <c r="N46" s="1">
+        <v>341702167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>26200879</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30532260</v>
+      </c>
+      <c r="D47" s="1">
+        <v>35796546</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21706989</v>
+      </c>
+      <c r="F47" s="1">
+        <v>18590909</v>
+      </c>
+      <c r="G47" s="1">
+        <v>33607923</v>
+      </c>
+      <c r="H47" s="1">
+        <v>27071096</v>
+      </c>
+      <c r="I47" s="1">
+        <v>25680202</v>
+      </c>
+      <c r="J47" s="1">
+        <v>24389820</v>
+      </c>
+      <c r="K47" s="1">
+        <v>25495502</v>
+      </c>
+      <c r="L47" s="1">
+        <v>24279792</v>
+      </c>
+      <c r="M47" s="1">
+        <v>51612621</v>
+      </c>
+      <c r="N47" s="1">
+        <v>344964539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1">
+        <v>29460681</v>
+      </c>
+      <c r="C48" s="1">
+        <v>29336567</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17054428</v>
+      </c>
+      <c r="E48" s="1">
+        <v>33633742</v>
+      </c>
+      <c r="F48" s="1">
+        <v>31899203</v>
+      </c>
+      <c r="G48" s="1">
+        <v>22862426</v>
+      </c>
+      <c r="H48" s="1">
+        <v>30120119</v>
+      </c>
+      <c r="I48" s="1">
+        <v>27952336</v>
+      </c>
+      <c r="J48" s="1">
+        <v>19268388</v>
+      </c>
+      <c r="K48" s="1">
+        <v>22760868</v>
+      </c>
+      <c r="L48" s="1">
+        <v>26312396</v>
+      </c>
+      <c r="M48" s="1">
+        <v>47949772</v>
+      </c>
+      <c r="N48" s="1">
+        <v>338610926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17015251</v>
+      </c>
+      <c r="C49" s="1">
+        <v>30608966</v>
+      </c>
+      <c r="D49" s="1">
+        <v>28503302</v>
+      </c>
+      <c r="E49" s="1">
+        <v>28877124</v>
+      </c>
+      <c r="F49" s="1">
+        <v>16952765</v>
+      </c>
+      <c r="G49" s="1">
+        <v>26695886</v>
+      </c>
+      <c r="H49" s="1">
+        <v>33069395</v>
+      </c>
+      <c r="I49" s="1">
+        <v>23090650</v>
+      </c>
+      <c r="J49" s="1">
+        <v>19398173</v>
+      </c>
+      <c r="K49" s="1">
+        <v>32021775</v>
+      </c>
+      <c r="L49" s="1">
+        <v>30059519</v>
+      </c>
+      <c r="M49" s="1">
+        <v>51290183</v>
+      </c>
+      <c r="N49" s="1">
+        <v>337582989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>31473223</v>
+      </c>
+      <c r="C50" s="1">
+        <v>26255937</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20547965</v>
+      </c>
+      <c r="E50" s="1">
+        <v>33424817</v>
+      </c>
+      <c r="F50" s="1">
+        <v>29870049</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19299385</v>
+      </c>
+      <c r="H50" s="1">
+        <v>25899573</v>
+      </c>
+      <c r="I50" s="1">
+        <v>31017550</v>
+      </c>
+      <c r="J50" s="1">
+        <v>24465875</v>
+      </c>
+      <c r="K50" s="1">
+        <v>15990928</v>
+      </c>
+      <c r="L50" s="1">
+        <v>24611380</v>
+      </c>
+      <c r="M50" s="1">
+        <v>47034781</v>
+      </c>
+      <c r="N50" s="1">
+        <v>329891463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>29555277</v>
+      </c>
+      <c r="C51" s="1">
+        <v>34517495</v>
+      </c>
+      <c r="D51" s="1">
+        <v>32597695</v>
+      </c>
+      <c r="E51" s="1">
+        <v>30238140</v>
+      </c>
+      <c r="F51" s="1">
+        <v>27231867</v>
+      </c>
+      <c r="G51" s="1">
+        <v>29100924</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23829895</v>
+      </c>
+      <c r="I51" s="1">
+        <v>24843007</v>
+      </c>
+      <c r="J51" s="1">
+        <v>21083674</v>
+      </c>
+      <c r="K51" s="1">
+        <v>29677832</v>
+      </c>
+      <c r="L51" s="1">
+        <v>21153260</v>
+      </c>
+      <c r="M51" s="1">
+        <v>54919684</v>
+      </c>
+      <c r="N51" s="1">
+        <v>358748750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>2012</v>
+      </c>
+      <c r="C60">
+        <v>2013</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+      <c r="E60">
+        <v>2015</v>
+      </c>
+      <c r="F60">
+        <v>2016</v>
+      </c>
+      <c r="G60">
+        <v>2017</v>
+      </c>
+      <c r="H60">
+        <v>2018</v>
+      </c>
+      <c r="I60">
+        <v>2019</v>
+      </c>
+      <c r="J60">
+        <v>2020</v>
+      </c>
+      <c r="K60">
+        <v>2021</v>
+      </c>
+      <c r="L60">
+        <v>2022</v>
+      </c>
+      <c r="M60">
+        <v>2023</v>
+      </c>
+      <c r="N60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1">
+        <v>52943701</v>
+      </c>
+      <c r="C61" s="1">
+        <v>73182364</v>
+      </c>
+      <c r="D61" s="1">
+        <v>54707115</v>
+      </c>
+      <c r="E61" s="1">
+        <v>51517884</v>
+      </c>
+      <c r="F61" s="1">
+        <v>63610791</v>
+      </c>
+      <c r="G61" s="1">
+        <v>90566899</v>
+      </c>
+      <c r="H61" s="1">
+        <v>54994813</v>
+      </c>
+      <c r="I61" s="1">
+        <v>76646440</v>
+      </c>
+      <c r="J61" s="1">
+        <v>83659411</v>
+      </c>
+      <c r="K61" s="1">
+        <v>89830559</v>
+      </c>
+      <c r="L61" s="1">
+        <v>87725417</v>
+      </c>
+      <c r="M61" s="1">
+        <v>144654609</v>
+      </c>
+      <c r="N61" s="1">
+        <v>924040003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="1">
+        <v>98290873</v>
+      </c>
+      <c r="C62" s="1">
+        <v>83883692</v>
+      </c>
+      <c r="D62" s="1">
+        <v>67453237</v>
+      </c>
+      <c r="E62" s="1">
+        <v>56551959</v>
+      </c>
+      <c r="F62" s="1">
+        <v>98454552</v>
+      </c>
+      <c r="G62" s="1">
+        <v>57860421</v>
+      </c>
+      <c r="H62" s="1">
+        <v>79972600</v>
+      </c>
+      <c r="I62" s="1">
+        <v>75122784</v>
+      </c>
+      <c r="J62" s="1">
+        <v>58898540</v>
+      </c>
+      <c r="K62" s="1">
+        <v>88182249</v>
+      </c>
+      <c r="L62" s="1">
+        <v>83104256</v>
+      </c>
+      <c r="M62" s="1">
+        <v>158178186</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1005953349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>82703597</v>
+      </c>
+      <c r="C63" s="1">
+        <v>53288399</v>
+      </c>
+      <c r="D63" s="1">
+        <v>83507400</v>
+      </c>
+      <c r="E63" s="1">
+        <v>87753553</v>
+      </c>
+      <c r="F63" s="1">
+        <v>84700526</v>
+      </c>
+      <c r="G63" s="1">
+        <v>99732691</v>
+      </c>
+      <c r="H63" s="1">
+        <v>70499145</v>
+      </c>
+      <c r="I63" s="1">
+        <v>69967979</v>
+      </c>
+      <c r="J63" s="1">
+        <v>65096491</v>
+      </c>
+      <c r="K63" s="1">
+        <v>71448927</v>
+      </c>
+      <c r="L63" s="1">
+        <v>87746916</v>
+      </c>
+      <c r="M63" s="1">
+        <v>158471595</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1014917219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="1">
+        <v>82606134</v>
+      </c>
+      <c r="C64" s="1">
+        <v>53925189</v>
+      </c>
+      <c r="D64" s="1">
+        <v>67583964</v>
+      </c>
+      <c r="E64" s="1">
+        <v>53003500</v>
+      </c>
+      <c r="F64" s="1">
+        <v>83561516</v>
+      </c>
+      <c r="G64" s="1">
+        <v>64091321</v>
+      </c>
+      <c r="H64" s="1">
+        <v>60115140</v>
+      </c>
+      <c r="I64" s="1">
+        <v>74821680</v>
+      </c>
+      <c r="J64" s="1">
+        <v>69761443</v>
+      </c>
+      <c r="K64" s="1">
+        <v>63214286</v>
+      </c>
+      <c r="L64" s="1">
+        <v>58034151</v>
+      </c>
+      <c r="M64" s="1">
+        <v>172563435</v>
+      </c>
+      <c r="N64" s="1">
+        <v>903281759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1">
+        <v>90924002</v>
+      </c>
+      <c r="C65" s="1">
+        <v>62935397</v>
+      </c>
+      <c r="D65" s="1">
+        <v>73003216</v>
+      </c>
+      <c r="E65" s="1">
+        <v>56564696</v>
+      </c>
+      <c r="F65" s="1">
+        <v>81655883</v>
+      </c>
+      <c r="G65" s="1">
+        <v>90594765</v>
+      </c>
+      <c r="H65" s="1">
+        <v>66435319</v>
+      </c>
+      <c r="I65" s="1">
+        <v>93925775</v>
+      </c>
+      <c r="J65" s="1">
+        <v>71093649</v>
+      </c>
+      <c r="K65" s="1">
+        <v>59639063</v>
+      </c>
+      <c r="L65" s="1">
+        <v>78338286</v>
+      </c>
+      <c r="M65" s="1">
+        <v>167164495</v>
+      </c>
+      <c r="N65" s="1">
+        <v>992274546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1">
+        <v>77345061</v>
+      </c>
+      <c r="C66" s="1">
+        <v>81928853</v>
+      </c>
+      <c r="D66" s="1">
+        <v>60633129</v>
+      </c>
+      <c r="E66" s="1">
+        <v>99534990</v>
+      </c>
+      <c r="F66" s="1">
+        <v>96670862</v>
+      </c>
+      <c r="G66" s="1">
+        <v>97015607</v>
+      </c>
+      <c r="H66" s="1">
+        <v>64318085</v>
+      </c>
+      <c r="I66" s="1">
+        <v>79685077</v>
+      </c>
+      <c r="J66" s="1">
+        <v>51880363</v>
+      </c>
+      <c r="K66" s="1">
+        <v>72743937</v>
+      </c>
+      <c r="L66" s="1">
+        <v>95372852</v>
+      </c>
+      <c r="M66" s="1">
+        <v>145662314</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1022791130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1">
+        <v>96384524</v>
+      </c>
+      <c r="C67" s="1">
+        <v>56531656</v>
+      </c>
+      <c r="D67" s="1">
+        <v>73831265</v>
+      </c>
+      <c r="E67" s="1">
+        <v>83822589</v>
+      </c>
+      <c r="F67" s="1">
+        <v>90524362</v>
+      </c>
+      <c r="G67" s="1">
+        <v>89637185</v>
+      </c>
+      <c r="H67" s="1">
+        <v>97709573</v>
+      </c>
+      <c r="I67" s="1">
+        <v>55912270</v>
+      </c>
+      <c r="J67" s="1">
+        <v>74230386</v>
+      </c>
+      <c r="K67" s="1">
+        <v>59933044</v>
+      </c>
+      <c r="L67" s="1">
+        <v>73990027</v>
+      </c>
+      <c r="M67" s="1">
+        <v>131612637</v>
+      </c>
+      <c r="N67" s="1">
+        <v>984119518</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="1">
+        <v>72780220</v>
+      </c>
+      <c r="C68" s="1">
+        <v>89800765</v>
+      </c>
+      <c r="D68" s="1">
+        <v>96747422</v>
+      </c>
+      <c r="E68" s="1">
+        <v>57123654</v>
+      </c>
+      <c r="F68" s="1">
+        <v>61969697</v>
+      </c>
+      <c r="G68" s="1">
+        <v>90832224</v>
+      </c>
+      <c r="H68" s="1">
+        <v>90236987</v>
+      </c>
+      <c r="I68" s="1">
+        <v>85600673</v>
+      </c>
+      <c r="J68" s="1">
+        <v>67749499</v>
+      </c>
+      <c r="K68" s="1">
+        <v>68906761</v>
+      </c>
+      <c r="L68" s="1">
+        <v>75874351</v>
+      </c>
+      <c r="M68" s="1">
+        <v>155273571</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1012895824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="1">
+        <v>77528109</v>
+      </c>
+      <c r="C69" s="1">
+        <v>88898687</v>
+      </c>
+      <c r="D69" s="1">
+        <v>53295086</v>
+      </c>
+      <c r="E69" s="1">
+        <v>86240365</v>
+      </c>
+      <c r="F69" s="1">
+        <v>86214061</v>
+      </c>
+      <c r="G69" s="1">
+        <v>61790341</v>
+      </c>
+      <c r="H69" s="1">
+        <v>77231074</v>
+      </c>
+      <c r="I69" s="1">
+        <v>79863817</v>
+      </c>
+      <c r="J69" s="1">
+        <v>50706283</v>
+      </c>
+      <c r="K69" s="1">
+        <v>68972328</v>
+      </c>
+      <c r="L69" s="1">
+        <v>84878696</v>
+      </c>
+      <c r="M69" s="1">
+        <v>155077940</v>
+      </c>
+      <c r="N69" s="1">
+        <v>970696787</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="1">
+        <v>54887908</v>
+      </c>
+      <c r="C70" s="1">
+        <v>85024906</v>
+      </c>
+      <c r="D70" s="1">
+        <v>71258255</v>
+      </c>
+      <c r="E70" s="1">
+        <v>75992432</v>
+      </c>
+      <c r="F70" s="1">
+        <v>51372015</v>
+      </c>
+      <c r="G70" s="1">
+        <v>74155238</v>
+      </c>
+      <c r="H70" s="1">
+        <v>82673488</v>
+      </c>
+      <c r="I70" s="1">
+        <v>76968833</v>
+      </c>
+      <c r="J70" s="1">
+        <v>58782343</v>
+      </c>
+      <c r="K70" s="1">
+        <v>86545338</v>
+      </c>
+      <c r="L70" s="1">
+        <v>91089451</v>
+      </c>
+      <c r="M70" s="1">
+        <v>161392215</v>
+      </c>
+      <c r="N70" s="1">
+        <v>970142422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="1">
+        <v>95373403</v>
+      </c>
+      <c r="C71" s="1">
+        <v>84696571</v>
+      </c>
+      <c r="D71" s="1">
+        <v>52687090</v>
+      </c>
+      <c r="E71" s="1">
+        <v>87960046</v>
+      </c>
+      <c r="F71" s="1">
+        <v>87853084</v>
+      </c>
+      <c r="G71" s="1">
+        <v>56762897</v>
+      </c>
+      <c r="H71" s="1">
+        <v>73998780</v>
+      </c>
+      <c r="I71" s="1">
+        <v>86159862</v>
+      </c>
+      <c r="J71" s="1">
+        <v>67960764</v>
+      </c>
+      <c r="K71" s="1">
+        <v>53303092</v>
+      </c>
+      <c r="L71" s="1">
+        <v>61528451</v>
+      </c>
+      <c r="M71" s="1">
+        <v>143272112</v>
+      </c>
+      <c r="N71" s="1">
+        <v>951556152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="1">
+        <v>79879127</v>
+      </c>
+      <c r="C72" s="1">
+        <v>90835513</v>
+      </c>
+      <c r="D72" s="1">
+        <v>98780894</v>
+      </c>
+      <c r="E72" s="1">
+        <v>75595351</v>
+      </c>
+      <c r="F72" s="1">
+        <v>87844733</v>
+      </c>
+      <c r="G72" s="1">
+        <v>93873947</v>
+      </c>
+      <c r="H72" s="1">
+        <v>62710249</v>
+      </c>
+      <c r="I72" s="1">
+        <v>67143263</v>
+      </c>
+      <c r="J72" s="1">
+        <v>56982904</v>
+      </c>
+      <c r="K72" s="1">
+        <v>78099559</v>
+      </c>
+      <c r="L72" s="1">
+        <v>52883151</v>
+      </c>
+      <c r="M72" s="1">
+        <v>163582100</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1008210791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E77" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F77" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H77" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I77" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J77" s="7">
+        <v>2020</v>
+      </c>
+      <c r="K77" s="7">
+        <v>2021</v>
+      </c>
+      <c r="L77" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M77" s="7">
+        <v>2023</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1">
+        <v>143659923</v>
+      </c>
+      <c r="C78" s="1">
+        <v>97549865</v>
+      </c>
+      <c r="D78" s="1">
+        <v>116805146</v>
+      </c>
+      <c r="E78" s="1">
+        <v>87109632</v>
+      </c>
+      <c r="F78" s="1">
+        <v>133915648</v>
+      </c>
+      <c r="G78" s="1">
+        <v>147669467</v>
+      </c>
+      <c r="H78" s="1">
+        <v>105632157</v>
+      </c>
+      <c r="I78" s="1">
+        <v>149341983</v>
+      </c>
+      <c r="J78" s="1">
+        <v>114460775</v>
+      </c>
+      <c r="K78" s="1">
+        <v>93633329</v>
+      </c>
+      <c r="L78" s="1">
+        <v>128474790</v>
+      </c>
+      <c r="M78" s="1">
+        <v>266293985</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1584546700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="1">
+        <v>137952244</v>
+      </c>
+      <c r="C79" s="1">
+        <v>86819554</v>
+      </c>
+      <c r="D79" s="1">
+        <v>109486022</v>
+      </c>
+      <c r="E79" s="1">
+        <v>86925740</v>
+      </c>
+      <c r="F79" s="1">
+        <v>132027196</v>
+      </c>
+      <c r="G79" s="1">
+        <v>105750680</v>
+      </c>
+      <c r="H79" s="1">
+        <v>98588829</v>
+      </c>
+      <c r="I79" s="1">
+        <v>120462904</v>
+      </c>
+      <c r="J79" s="1">
+        <v>111618309</v>
+      </c>
+      <c r="K79" s="1">
+        <v>97350000</v>
+      </c>
+      <c r="L79" s="1">
+        <v>92274300</v>
+      </c>
+      <c r="M79" s="1">
+        <v>274107741</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1453363519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="1">
+        <v>114264945</v>
+      </c>
+      <c r="C80" s="1">
+        <v>147273255</v>
+      </c>
+      <c r="D80" s="1">
+        <v>160600720</v>
+      </c>
+      <c r="E80" s="1">
+        <v>91397847</v>
+      </c>
+      <c r="F80" s="1">
+        <v>96053030</v>
+      </c>
+      <c r="G80" s="1">
+        <v>148056525</v>
+      </c>
+      <c r="H80" s="1">
+        <v>142574439</v>
+      </c>
+      <c r="I80" s="1">
+        <v>136961077</v>
+      </c>
+      <c r="J80" s="1">
+        <v>111786674</v>
+      </c>
+      <c r="K80" s="1">
+        <v>108872683</v>
+      </c>
+      <c r="L80" s="1">
+        <v>117605244</v>
+      </c>
+      <c r="M80" s="1">
+        <v>241294606</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1616741045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="1">
+        <v>88415980</v>
+      </c>
+      <c r="C81" s="1">
+        <v>120750901</v>
+      </c>
+      <c r="D81" s="1">
+        <v>86984313</v>
+      </c>
+      <c r="E81" s="1">
+        <v>79852720</v>
+      </c>
+      <c r="F81" s="1">
+        <v>99868942</v>
+      </c>
+      <c r="G81" s="1">
+        <v>153058060</v>
+      </c>
+      <c r="H81" s="1">
+        <v>86341857</v>
+      </c>
+      <c r="I81" s="1">
+        <v>126466626</v>
+      </c>
+      <c r="J81" s="1">
+        <v>135528246</v>
+      </c>
+      <c r="K81" s="1">
+        <v>150017034</v>
+      </c>
+      <c r="L81" s="1">
+        <v>145624192</v>
+      </c>
+      <c r="M81" s="1">
+        <v>224426256</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1497335127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="1">
+        <v>126370817</v>
+      </c>
+      <c r="C82" s="1">
+        <v>142237899</v>
+      </c>
+      <c r="D82" s="1">
+        <v>83673286</v>
+      </c>
+      <c r="E82" s="1">
+        <v>137122180</v>
+      </c>
+      <c r="F82" s="1">
+        <v>135356076</v>
+      </c>
+      <c r="G82" s="1">
+        <v>98864545</v>
+      </c>
+      <c r="H82" s="1">
+        <v>124342029</v>
+      </c>
+      <c r="I82" s="1">
+        <v>124587555</v>
+      </c>
+      <c r="J82" s="1">
+        <v>80622990</v>
+      </c>
+      <c r="K82" s="1">
+        <v>110355725</v>
+      </c>
+      <c r="L82" s="1">
+        <v>132410766</v>
+      </c>
+      <c r="M82" s="1">
+        <v>239533222</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1535477090</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="1">
+        <v>155179084</v>
+      </c>
+      <c r="C83" s="1">
+        <v>88754700</v>
+      </c>
+      <c r="D83" s="1">
+        <v>115915086</v>
+      </c>
+      <c r="E83" s="1">
+        <v>132439691</v>
+      </c>
+      <c r="F83" s="1">
+        <v>145744223</v>
+      </c>
+      <c r="G83" s="1">
+        <v>142523124</v>
+      </c>
+      <c r="H83" s="1">
+        <v>154381125</v>
+      </c>
+      <c r="I83" s="1">
+        <v>91696123</v>
+      </c>
+      <c r="J83" s="1">
+        <v>120995529</v>
+      </c>
+      <c r="K83" s="1">
+        <v>97091532</v>
+      </c>
+      <c r="L83" s="1">
+        <v>119863843</v>
+      </c>
+      <c r="M83" s="1">
+        <v>210246441</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1574830501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="1">
+        <v>119884845</v>
+      </c>
+      <c r="C84" s="1">
+        <v>134363319</v>
+      </c>
+      <c r="D84" s="1">
+        <v>96406675</v>
+      </c>
+      <c r="E84" s="1">
+        <v>160251334</v>
+      </c>
+      <c r="F84" s="1">
+        <v>158540214</v>
+      </c>
+      <c r="G84" s="1">
+        <v>155224971</v>
+      </c>
+      <c r="H84" s="1">
+        <v>102265755</v>
+      </c>
+      <c r="I84" s="1">
+        <v>128292974</v>
+      </c>
+      <c r="J84" s="1">
+        <v>85602599</v>
+      </c>
+      <c r="K84" s="1">
+        <v>111298224</v>
+      </c>
+      <c r="L84" s="1">
+        <v>148781649</v>
+      </c>
+      <c r="M84" s="1">
+        <v>228478793</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1629391352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="1">
+        <v>162179941</v>
+      </c>
+      <c r="C85" s="1">
+        <v>140924603</v>
+      </c>
+      <c r="D85" s="1">
+        <v>103877985</v>
+      </c>
+      <c r="E85" s="1">
+        <v>91048654</v>
+      </c>
+      <c r="F85" s="1">
+        <v>159496374</v>
+      </c>
+      <c r="G85" s="1">
+        <v>90262256</v>
+      </c>
+      <c r="H85" s="1">
+        <v>132754516</v>
+      </c>
+      <c r="I85" s="1">
+        <v>114186632</v>
+      </c>
+      <c r="J85" s="1">
+        <v>96004620</v>
+      </c>
+      <c r="K85" s="1">
+        <v>146382533</v>
+      </c>
+      <c r="L85" s="1">
+        <v>135459937</v>
+      </c>
+      <c r="M85" s="1">
+        <v>259412225</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1631990276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="1">
+        <v>132599351</v>
+      </c>
+      <c r="C86" s="1">
+        <v>146245176</v>
+      </c>
+      <c r="D86" s="1">
+        <v>161012857</v>
+      </c>
+      <c r="E86" s="1">
+        <v>127000189</v>
+      </c>
+      <c r="F86" s="1">
+        <v>138794678</v>
+      </c>
+      <c r="G86" s="1">
+        <v>148320837</v>
+      </c>
+      <c r="H86" s="1">
+        <v>102844809</v>
+      </c>
+      <c r="I86" s="1">
+        <v>107429220</v>
+      </c>
+      <c r="J86" s="1">
+        <v>94591620</v>
+      </c>
+      <c r="K86" s="1">
+        <v>126521285</v>
+      </c>
+      <c r="L86" s="1">
+        <v>89372525</v>
+      </c>
+      <c r="M86" s="1">
+        <v>256023084</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1630755631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="1">
+        <v>154504913</v>
+      </c>
+      <c r="C87" s="1">
+        <v>136361479</v>
+      </c>
+      <c r="D87" s="1">
+        <v>84299344</v>
+      </c>
+      <c r="E87" s="1">
+        <v>142495274</v>
+      </c>
+      <c r="F87" s="1">
+        <v>142321997</v>
+      </c>
+      <c r="G87" s="1">
+        <v>87414861</v>
+      </c>
+      <c r="H87" s="1">
+        <v>119878024</v>
+      </c>
+      <c r="I87" s="1">
+        <v>135270983</v>
+      </c>
+      <c r="J87" s="1">
+        <v>106018792</v>
+      </c>
+      <c r="K87" s="1">
+        <v>83685855</v>
+      </c>
+      <c r="L87" s="1">
+        <v>99676090</v>
+      </c>
+      <c r="M87" s="1">
+        <v>225983727</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1517911339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="1">
+        <v>86722894</v>
+      </c>
+      <c r="C88" s="1">
+        <v>132638853</v>
+      </c>
+      <c r="D88" s="1">
+        <v>119713868</v>
+      </c>
+      <c r="E88" s="1">
+        <v>123867664</v>
+      </c>
+      <c r="F88" s="1">
+        <v>81167784</v>
+      </c>
+      <c r="G88" s="1">
+        <v>120131486</v>
+      </c>
+      <c r="H88" s="1">
+        <v>138891460</v>
+      </c>
+      <c r="I88" s="1">
+        <v>116992626</v>
+      </c>
+      <c r="J88" s="1">
+        <v>92876102</v>
+      </c>
+      <c r="K88" s="1">
+        <v>141068901</v>
+      </c>
+      <c r="L88" s="1">
+        <v>147564911</v>
+      </c>
+      <c r="M88" s="1">
+        <v>259787231</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1561423780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="1">
+        <v>132325755</v>
+      </c>
+      <c r="C89" s="1">
+        <v>82064135</v>
+      </c>
+      <c r="D89" s="1">
+        <v>136952136</v>
+      </c>
+      <c r="E89" s="1">
+        <v>139528149</v>
+      </c>
+      <c r="F89" s="1">
+        <v>135520842</v>
+      </c>
+      <c r="G89" s="1">
+        <v>159572305</v>
+      </c>
+      <c r="H89" s="1">
+        <v>116323590</v>
+      </c>
+      <c r="I89" s="1">
+        <v>107051008</v>
+      </c>
+      <c r="J89" s="1">
+        <v>101550526</v>
+      </c>
+      <c r="K89" s="1">
+        <v>110745837</v>
+      </c>
+      <c r="L89" s="1">
+        <v>138640128</v>
+      </c>
+      <c r="M89" s="1">
+        <v>259647116</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1619921527</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:N72">
+    <sortCondition ref="A61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6A53AB-C4EF-441E-A86F-FADF42B80C28}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7083636</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4260127</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4105149</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3904025</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3008591</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2391547</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4396649</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5008962</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5645390</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5733394</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5157038</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7693351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4422648</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4420972</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2731352</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4565645</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5538994</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5815584</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6754744</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2924836</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5035583</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4475537</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5013752</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5528808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11506284</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8681099</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6836501</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8469670</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8547585</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8207131</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11151393</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7933798</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10680973</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10208931</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10170790</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13222159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5671747</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6280792</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4840353</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6174072</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7495346</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3223646</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6809539</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5394117</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5242835</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2810007</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4466445</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4730833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4422648</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4420972</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2731352</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4565645</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5538994</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5815584</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6754744</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2924836</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5035583</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4475537</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5013752</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5528808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B22D7A6-DD2D-4587-A102-FCB16C2CAAC7}">
   <dimension ref="A1:Q352"/>
   <sheetViews>
